--- a/excel/finished/wg8#高炉/小时炉况输入表.xlsx
+++ b/excel/finished/wg8#高炉/小时炉况输入表.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D83982-4D9E-4F90-B029-84CEF7E2E6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时炉况输入表" sheetId="1" r:id="rId1"/>
-    <sheet name="_lukuang_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_lukuang_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -196,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,21 +777,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
@@ -787,7 +799,7 @@
     <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="47.45" customHeight="1" thickBot="1">
+    <row r="2" spans="2:11" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
@@ -801,7 +813,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="2:11" ht="25.5" customHeight="1" thickTop="1">
+    <row r="3" spans="2:11" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -833,7 +845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="34.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -863,888 +875,888 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" thickTop="1">
+    <row r="5" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C2="","",_lukuang_day_hour!C2)</f>
+        <f>IF(_lukuang_day_all!C2="","",_lukuang_day_all!C2)</f>
         <v/>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D2="","",_lukuang_day_hour!D2)</f>
+        <f>IF(_lukuang_day_all!D2="","",_lukuang_day_all!D2)</f>
         <v/>
       </c>
       <c r="G5" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E2="","",_lukuang_day_hour!E2)</f>
+        <f>IF(_lukuang_day_all!E2="","",_lukuang_day_all!E2)</f>
         <v/>
       </c>
       <c r="H5" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F2="","",_lukuang_day_hour!F2)</f>
+        <f>IF(_lukuang_day_all!F2="","",_lukuang_day_all!F2)</f>
         <v/>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G2="","",_lukuang_day_hour!G2)</f>
+        <f>IF(_lukuang_day_all!G2="","",_lukuang_day_all!G2)</f>
         <v/>
       </c>
       <c r="J5" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H2="","",_lukuang_day_hour!H2)</f>
+        <f>IF(_lukuang_day_all!H2="","",_lukuang_day_all!H2)</f>
         <v/>
       </c>
       <c r="K5" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I2="","",_lukuang_day_hour!I2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I2="","",_lukuang_day_all!I2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C3="","",_lukuang_day_hour!C3)</f>
+        <f>IF(_lukuang_day_all!C3="","",_lukuang_day_all!C3)</f>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D3="","",_lukuang_day_hour!D3)</f>
+        <f>IF(_lukuang_day_all!D3="","",_lukuang_day_all!D3)</f>
         <v/>
       </c>
       <c r="G6" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E3="","",_lukuang_day_hour!E3)</f>
+        <f>IF(_lukuang_day_all!E3="","",_lukuang_day_all!E3)</f>
         <v/>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F3="","",_lukuang_day_hour!F3)</f>
+        <f>IF(_lukuang_day_all!F3="","",_lukuang_day_all!F3)</f>
         <v/>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G3="","",_lukuang_day_hour!G3)</f>
+        <f>IF(_lukuang_day_all!G3="","",_lukuang_day_all!G3)</f>
         <v/>
       </c>
       <c r="J6" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H3="","",_lukuang_day_hour!H3)</f>
+        <f>IF(_lukuang_day_all!H3="","",_lukuang_day_all!H3)</f>
         <v/>
       </c>
       <c r="K6" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I3="","",_lukuang_day_hour!I3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I3="","",_lukuang_day_all!I3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>0.125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C4="","",_lukuang_day_hour!C4)</f>
+        <f>IF(_lukuang_day_all!C4="","",_lukuang_day_all!C4)</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D4="","",_lukuang_day_hour!D4)</f>
+        <f>IF(_lukuang_day_all!D4="","",_lukuang_day_all!D4)</f>
         <v/>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E4="","",_lukuang_day_hour!E4)</f>
+        <f>IF(_lukuang_day_all!E4="","",_lukuang_day_all!E4)</f>
         <v/>
       </c>
       <c r="H7" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F4="","",_lukuang_day_hour!F4)</f>
+        <f>IF(_lukuang_day_all!F4="","",_lukuang_day_all!F4)</f>
         <v/>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G4="","",_lukuang_day_hour!G4)</f>
+        <f>IF(_lukuang_day_all!G4="","",_lukuang_day_all!G4)</f>
         <v/>
       </c>
       <c r="J7" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H4="","",_lukuang_day_hour!H4)</f>
+        <f>IF(_lukuang_day_all!H4="","",_lukuang_day_all!H4)</f>
         <v/>
       </c>
       <c r="K7" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I4="","",_lukuang_day_hour!I4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I4="","",_lukuang_day_all!I4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>0.16666666666666699</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C5="","",_lukuang_day_hour!C5)</f>
+        <f>IF(_lukuang_day_all!C5="","",_lukuang_day_all!C5)</f>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D5="","",_lukuang_day_hour!D5)</f>
+        <f>IF(_lukuang_day_all!D5="","",_lukuang_day_all!D5)</f>
         <v/>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E5="","",_lukuang_day_hour!E5)</f>
+        <f>IF(_lukuang_day_all!E5="","",_lukuang_day_all!E5)</f>
         <v/>
       </c>
       <c r="H8" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F5="","",_lukuang_day_hour!F5)</f>
+        <f>IF(_lukuang_day_all!F5="","",_lukuang_day_all!F5)</f>
         <v/>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G5="","",_lukuang_day_hour!G5)</f>
+        <f>IF(_lukuang_day_all!G5="","",_lukuang_day_all!G5)</f>
         <v/>
       </c>
       <c r="J8" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H5="","",_lukuang_day_hour!H5)</f>
+        <f>IF(_lukuang_day_all!H5="","",_lukuang_day_all!H5)</f>
         <v/>
       </c>
       <c r="K8" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I5="","",_lukuang_day_hour!I5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I5="","",_lukuang_day_all!I5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>0.20833333333333301</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C6="","",_lukuang_day_hour!C6)</f>
+        <f>IF(_lukuang_day_all!C6="","",_lukuang_day_all!C6)</f>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D6="","",_lukuang_day_hour!D6)</f>
+        <f>IF(_lukuang_day_all!D6="","",_lukuang_day_all!D6)</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E6="","",_lukuang_day_hour!E6)</f>
+        <f>IF(_lukuang_day_all!E6="","",_lukuang_day_all!E6)</f>
         <v/>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F6="","",_lukuang_day_hour!F6)</f>
+        <f>IF(_lukuang_day_all!F6="","",_lukuang_day_all!F6)</f>
         <v/>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G6="","",_lukuang_day_hour!G6)</f>
+        <f>IF(_lukuang_day_all!G6="","",_lukuang_day_all!G6)</f>
         <v/>
       </c>
       <c r="J9" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H6="","",_lukuang_day_hour!H6)</f>
+        <f>IF(_lukuang_day_all!H6="","",_lukuang_day_all!H6)</f>
         <v/>
       </c>
       <c r="K9" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I6="","",_lukuang_day_hour!I6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I6="","",_lukuang_day_all!I6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>0.25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C7="","",_lukuang_day_hour!C7)</f>
+        <f>IF(_lukuang_day_all!C7="","",_lukuang_day_all!C7)</f>
         <v/>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D7="","",_lukuang_day_hour!D7)</f>
+        <f>IF(_lukuang_day_all!D7="","",_lukuang_day_all!D7)</f>
         <v/>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E7="","",_lukuang_day_hour!E7)</f>
+        <f>IF(_lukuang_day_all!E7="","",_lukuang_day_all!E7)</f>
         <v/>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F7="","",_lukuang_day_hour!F7)</f>
+        <f>IF(_lukuang_day_all!F7="","",_lukuang_day_all!F7)</f>
         <v/>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G7="","",_lukuang_day_hour!G7)</f>
+        <f>IF(_lukuang_day_all!G7="","",_lukuang_day_all!G7)</f>
         <v/>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H7="","",_lukuang_day_hour!H7)</f>
+        <f>IF(_lukuang_day_all!H7="","",_lukuang_day_all!H7)</f>
         <v/>
       </c>
       <c r="K10" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I7="","",_lukuang_day_hour!I7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I7="","",_lukuang_day_all!I7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>0.29166666666666702</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C8="","",_lukuang_day_hour!C8)</f>
+        <f>IF(_lukuang_day_all!C8="","",_lukuang_day_all!C8)</f>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D8="","",_lukuang_day_hour!D8)</f>
+        <f>IF(_lukuang_day_all!D8="","",_lukuang_day_all!D8)</f>
         <v/>
       </c>
       <c r="G11" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E8="","",_lukuang_day_hour!E8)</f>
+        <f>IF(_lukuang_day_all!E8="","",_lukuang_day_all!E8)</f>
         <v/>
       </c>
       <c r="H11" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F8="","",_lukuang_day_hour!F8)</f>
+        <f>IF(_lukuang_day_all!F8="","",_lukuang_day_all!F8)</f>
         <v/>
       </c>
       <c r="I11" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G8="","",_lukuang_day_hour!G8)</f>
+        <f>IF(_lukuang_day_all!G8="","",_lukuang_day_all!G8)</f>
         <v/>
       </c>
       <c r="J11" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H8="","",_lukuang_day_hour!H8)</f>
+        <f>IF(_lukuang_day_all!H8="","",_lukuang_day_all!H8)</f>
         <v/>
       </c>
       <c r="K11" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I8="","",_lukuang_day_hour!I8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I8="","",_lukuang_day_all!I8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>0.33333333333333298</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C9="","",_lukuang_day_hour!C9)</f>
+        <f>IF(_lukuang_day_all!C9="","",_lukuang_day_all!C9)</f>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D9="","",_lukuang_day_hour!D9)</f>
+        <f>IF(_lukuang_day_all!D9="","",_lukuang_day_all!D9)</f>
         <v/>
       </c>
       <c r="G12" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E9="","",_lukuang_day_hour!E9)</f>
+        <f>IF(_lukuang_day_all!E9="","",_lukuang_day_all!E9)</f>
         <v/>
       </c>
       <c r="H12" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F9="","",_lukuang_day_hour!F9)</f>
+        <f>IF(_lukuang_day_all!F9="","",_lukuang_day_all!F9)</f>
         <v/>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G9="","",_lukuang_day_hour!G9)</f>
+        <f>IF(_lukuang_day_all!G9="","",_lukuang_day_all!G9)</f>
         <v/>
       </c>
       <c r="J12" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H9="","",_lukuang_day_hour!H9)</f>
+        <f>IF(_lukuang_day_all!H9="","",_lukuang_day_all!H9)</f>
         <v/>
       </c>
       <c r="K12" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I9="","",_lukuang_day_hour!I9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I9="","",_lukuang_day_all!I9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>0.375</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C10="","",_lukuang_day_hour!C10)</f>
+        <f>IF(_lukuang_day_all!C10="","",_lukuang_day_all!C10)</f>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D10="","",_lukuang_day_hour!D10)</f>
+        <f>IF(_lukuang_day_all!D10="","",_lukuang_day_all!D10)</f>
         <v/>
       </c>
       <c r="G13" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E10="","",_lukuang_day_hour!E10)</f>
+        <f>IF(_lukuang_day_all!E10="","",_lukuang_day_all!E10)</f>
         <v/>
       </c>
       <c r="H13" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F10="","",_lukuang_day_hour!F10)</f>
+        <f>IF(_lukuang_day_all!F10="","",_lukuang_day_all!F10)</f>
         <v/>
       </c>
       <c r="I13" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G10="","",_lukuang_day_hour!G10)</f>
+        <f>IF(_lukuang_day_all!G10="","",_lukuang_day_all!G10)</f>
         <v/>
       </c>
       <c r="J13" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H10="","",_lukuang_day_hour!H10)</f>
+        <f>IF(_lukuang_day_all!H10="","",_lukuang_day_all!H10)</f>
         <v/>
       </c>
       <c r="K13" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I10="","",_lukuang_day_hour!I10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I10="","",_lukuang_day_all!I10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>0.41666666666666702</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C11="","",_lukuang_day_hour!C11)</f>
+        <f>IF(_lukuang_day_all!C11="","",_lukuang_day_all!C11)</f>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D11="","",_lukuang_day_hour!D11)</f>
+        <f>IF(_lukuang_day_all!D11="","",_lukuang_day_all!D11)</f>
         <v/>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E11="","",_lukuang_day_hour!E11)</f>
+        <f>IF(_lukuang_day_all!E11="","",_lukuang_day_all!E11)</f>
         <v/>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F11="","",_lukuang_day_hour!F11)</f>
+        <f>IF(_lukuang_day_all!F11="","",_lukuang_day_all!F11)</f>
         <v/>
       </c>
       <c r="I14" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G11="","",_lukuang_day_hour!G11)</f>
+        <f>IF(_lukuang_day_all!G11="","",_lukuang_day_all!G11)</f>
         <v/>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H11="","",_lukuang_day_hour!H11)</f>
+        <f>IF(_lukuang_day_all!H11="","",_lukuang_day_all!H11)</f>
         <v/>
       </c>
       <c r="K14" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I11="","",_lukuang_day_hour!I11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I11="","",_lukuang_day_all!I11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>0.45833333333333298</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C12="","",_lukuang_day_hour!C12)</f>
+        <f>IF(_lukuang_day_all!C12="","",_lukuang_day_all!C12)</f>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D12="","",_lukuang_day_hour!D12)</f>
+        <f>IF(_lukuang_day_all!D12="","",_lukuang_day_all!D12)</f>
         <v/>
       </c>
       <c r="G15" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E12="","",_lukuang_day_hour!E12)</f>
+        <f>IF(_lukuang_day_all!E12="","",_lukuang_day_all!E12)</f>
         <v/>
       </c>
       <c r="H15" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F12="","",_lukuang_day_hour!F12)</f>
+        <f>IF(_lukuang_day_all!F12="","",_lukuang_day_all!F12)</f>
         <v/>
       </c>
       <c r="I15" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G12="","",_lukuang_day_hour!G12)</f>
+        <f>IF(_lukuang_day_all!G12="","",_lukuang_day_all!G12)</f>
         <v/>
       </c>
       <c r="J15" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H12="","",_lukuang_day_hour!H12)</f>
+        <f>IF(_lukuang_day_all!H12="","",_lukuang_day_all!H12)</f>
         <v/>
       </c>
       <c r="K15" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I12="","",_lukuang_day_hour!I12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I12="","",_lukuang_day_all!I12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>0.5</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C13="","",_lukuang_day_hour!C13)</f>
+        <f>IF(_lukuang_day_all!C13="","",_lukuang_day_all!C13)</f>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D13="","",_lukuang_day_hour!D13)</f>
+        <f>IF(_lukuang_day_all!D13="","",_lukuang_day_all!D13)</f>
         <v/>
       </c>
       <c r="G16" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E13="","",_lukuang_day_hour!E13)</f>
+        <f>IF(_lukuang_day_all!E13="","",_lukuang_day_all!E13)</f>
         <v/>
       </c>
       <c r="H16" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F13="","",_lukuang_day_hour!F13)</f>
+        <f>IF(_lukuang_day_all!F13="","",_lukuang_day_all!F13)</f>
         <v/>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G13="","",_lukuang_day_hour!G13)</f>
+        <f>IF(_lukuang_day_all!G13="","",_lukuang_day_all!G13)</f>
         <v/>
       </c>
       <c r="J16" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H13="","",_lukuang_day_hour!H13)</f>
+        <f>IF(_lukuang_day_all!H13="","",_lukuang_day_all!H13)</f>
         <v/>
       </c>
       <c r="K16" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I13="","",_lukuang_day_hour!I13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I13="","",_lukuang_day_all!I13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>0.54166666666666696</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C14="","",_lukuang_day_hour!C14)</f>
+        <f>IF(_lukuang_day_all!C14="","",_lukuang_day_all!C14)</f>
         <v/>
       </c>
       <c r="F17" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D14="","",_lukuang_day_hour!D14)</f>
+        <f>IF(_lukuang_day_all!D14="","",_lukuang_day_all!D14)</f>
         <v/>
       </c>
       <c r="G17" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E14="","",_lukuang_day_hour!E14)</f>
+        <f>IF(_lukuang_day_all!E14="","",_lukuang_day_all!E14)</f>
         <v/>
       </c>
       <c r="H17" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F14="","",_lukuang_day_hour!F14)</f>
+        <f>IF(_lukuang_day_all!F14="","",_lukuang_day_all!F14)</f>
         <v/>
       </c>
       <c r="I17" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G14="","",_lukuang_day_hour!G14)</f>
+        <f>IF(_lukuang_day_all!G14="","",_lukuang_day_all!G14)</f>
         <v/>
       </c>
       <c r="J17" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H14="","",_lukuang_day_hour!H14)</f>
+        <f>IF(_lukuang_day_all!H14="","",_lukuang_day_all!H14)</f>
         <v/>
       </c>
       <c r="K17" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I14="","",_lukuang_day_hour!I14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I14="","",_lukuang_day_all!I14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>0.58333333333333304</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C15="","",_lukuang_day_hour!C15)</f>
+        <f>IF(_lukuang_day_all!C15="","",_lukuang_day_all!C15)</f>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D15="","",_lukuang_day_hour!D15)</f>
+        <f>IF(_lukuang_day_all!D15="","",_lukuang_day_all!D15)</f>
         <v/>
       </c>
       <c r="G18" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E15="","",_lukuang_day_hour!E15)</f>
+        <f>IF(_lukuang_day_all!E15="","",_lukuang_day_all!E15)</f>
         <v/>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F15="","",_lukuang_day_hour!F15)</f>
+        <f>IF(_lukuang_day_all!F15="","",_lukuang_day_all!F15)</f>
         <v/>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G15="","",_lukuang_day_hour!G15)</f>
+        <f>IF(_lukuang_day_all!G15="","",_lukuang_day_all!G15)</f>
         <v/>
       </c>
       <c r="J18" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H15="","",_lukuang_day_hour!H15)</f>
+        <f>IF(_lukuang_day_all!H15="","",_lukuang_day_all!H15)</f>
         <v/>
       </c>
       <c r="K18" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I15="","",_lukuang_day_hour!I15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I15="","",_lukuang_day_all!I15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>0.625</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C16="","",_lukuang_day_hour!C16)</f>
+        <f>IF(_lukuang_day_all!C16="","",_lukuang_day_all!C16)</f>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D16="","",_lukuang_day_hour!D16)</f>
+        <f>IF(_lukuang_day_all!D16="","",_lukuang_day_all!D16)</f>
         <v/>
       </c>
       <c r="G19" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E16="","",_lukuang_day_hour!E16)</f>
+        <f>IF(_lukuang_day_all!E16="","",_lukuang_day_all!E16)</f>
         <v/>
       </c>
       <c r="H19" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F16="","",_lukuang_day_hour!F16)</f>
+        <f>IF(_lukuang_day_all!F16="","",_lukuang_day_all!F16)</f>
         <v/>
       </c>
       <c r="I19" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G16="","",_lukuang_day_hour!G16)</f>
+        <f>IF(_lukuang_day_all!G16="","",_lukuang_day_all!G16)</f>
         <v/>
       </c>
       <c r="J19" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H16="","",_lukuang_day_hour!H16)</f>
+        <f>IF(_lukuang_day_all!H16="","",_lukuang_day_all!H16)</f>
         <v/>
       </c>
       <c r="K19" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I16="","",_lukuang_day_hour!I16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I16="","",_lukuang_day_all!I16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>0.66666666666666696</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C17="","",_lukuang_day_hour!C17)</f>
+        <f>IF(_lukuang_day_all!C17="","",_lukuang_day_all!C17)</f>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D17="","",_lukuang_day_hour!D17)</f>
+        <f>IF(_lukuang_day_all!D17="","",_lukuang_day_all!D17)</f>
         <v/>
       </c>
       <c r="G20" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E17="","",_lukuang_day_hour!E17)</f>
+        <f>IF(_lukuang_day_all!E17="","",_lukuang_day_all!E17)</f>
         <v/>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F17="","",_lukuang_day_hour!F17)</f>
+        <f>IF(_lukuang_day_all!F17="","",_lukuang_day_all!F17)</f>
         <v/>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G17="","",_lukuang_day_hour!G17)</f>
+        <f>IF(_lukuang_day_all!G17="","",_lukuang_day_all!G17)</f>
         <v/>
       </c>
       <c r="J20" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H17="","",_lukuang_day_hour!H17)</f>
+        <f>IF(_lukuang_day_all!H17="","",_lukuang_day_all!H17)</f>
         <v/>
       </c>
       <c r="K20" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I17="","",_lukuang_day_hour!I17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I17="","",_lukuang_day_all!I17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>0.70833333333333304</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C18="","",_lukuang_day_hour!C18)</f>
+        <f>IF(_lukuang_day_all!C18="","",_lukuang_day_all!C18)</f>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D18="","",_lukuang_day_hour!D18)</f>
+        <f>IF(_lukuang_day_all!D18="","",_lukuang_day_all!D18)</f>
         <v/>
       </c>
       <c r="G21" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E18="","",_lukuang_day_hour!E18)</f>
+        <f>IF(_lukuang_day_all!E18="","",_lukuang_day_all!E18)</f>
         <v/>
       </c>
       <c r="H21" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F18="","",_lukuang_day_hour!F18)</f>
+        <f>IF(_lukuang_day_all!F18="","",_lukuang_day_all!F18)</f>
         <v/>
       </c>
       <c r="I21" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G18="","",_lukuang_day_hour!G18)</f>
+        <f>IF(_lukuang_day_all!G18="","",_lukuang_day_all!G18)</f>
         <v/>
       </c>
       <c r="J21" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H18="","",_lukuang_day_hour!H18)</f>
+        <f>IF(_lukuang_day_all!H18="","",_lukuang_day_all!H18)</f>
         <v/>
       </c>
       <c r="K21" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I18="","",_lukuang_day_hour!I18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I18="","",_lukuang_day_all!I18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>0.75</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C19="","",_lukuang_day_hour!C19)</f>
+        <f>IF(_lukuang_day_all!C19="","",_lukuang_day_all!C19)</f>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D19="","",_lukuang_day_hour!D19)</f>
+        <f>IF(_lukuang_day_all!D19="","",_lukuang_day_all!D19)</f>
         <v/>
       </c>
       <c r="G22" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E19="","",_lukuang_day_hour!E19)</f>
+        <f>IF(_lukuang_day_all!E19="","",_lukuang_day_all!E19)</f>
         <v/>
       </c>
       <c r="H22" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F19="","",_lukuang_day_hour!F19)</f>
+        <f>IF(_lukuang_day_all!F19="","",_lukuang_day_all!F19)</f>
         <v/>
       </c>
       <c r="I22" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G19="","",_lukuang_day_hour!G19)</f>
+        <f>IF(_lukuang_day_all!G19="","",_lukuang_day_all!G19)</f>
         <v/>
       </c>
       <c r="J22" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H19="","",_lukuang_day_hour!H19)</f>
+        <f>IF(_lukuang_day_all!H19="","",_lukuang_day_all!H19)</f>
         <v/>
       </c>
       <c r="K22" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I19="","",_lukuang_day_hour!I19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I19="","",_lukuang_day_all!I19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>0.79166666666666696</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C20="","",_lukuang_day_hour!C20)</f>
+        <f>IF(_lukuang_day_all!C20="","",_lukuang_day_all!C20)</f>
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D20="","",_lukuang_day_hour!D20)</f>
+        <f>IF(_lukuang_day_all!D20="","",_lukuang_day_all!D20)</f>
         <v/>
       </c>
       <c r="G23" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E20="","",_lukuang_day_hour!E20)</f>
+        <f>IF(_lukuang_day_all!E20="","",_lukuang_day_all!E20)</f>
         <v/>
       </c>
       <c r="H23" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F20="","",_lukuang_day_hour!F20)</f>
+        <f>IF(_lukuang_day_all!F20="","",_lukuang_day_all!F20)</f>
         <v/>
       </c>
       <c r="I23" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G20="","",_lukuang_day_hour!G20)</f>
+        <f>IF(_lukuang_day_all!G20="","",_lukuang_day_all!G20)</f>
         <v/>
       </c>
       <c r="J23" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H20="","",_lukuang_day_hour!H20)</f>
+        <f>IF(_lukuang_day_all!H20="","",_lukuang_day_all!H20)</f>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I20="","",_lukuang_day_hour!I20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I20="","",_lukuang_day_all!I20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>0.83333333333333304</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C21="","",_lukuang_day_hour!C21)</f>
+        <f>IF(_lukuang_day_all!C21="","",_lukuang_day_all!C21)</f>
         <v/>
       </c>
       <c r="F24" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D21="","",_lukuang_day_hour!D21)</f>
+        <f>IF(_lukuang_day_all!D21="","",_lukuang_day_all!D21)</f>
         <v/>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E21="","",_lukuang_day_hour!E21)</f>
+        <f>IF(_lukuang_day_all!E21="","",_lukuang_day_all!E21)</f>
         <v/>
       </c>
       <c r="H24" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F21="","",_lukuang_day_hour!F21)</f>
+        <f>IF(_lukuang_day_all!F21="","",_lukuang_day_all!F21)</f>
         <v/>
       </c>
       <c r="I24" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G21="","",_lukuang_day_hour!G21)</f>
+        <f>IF(_lukuang_day_all!G21="","",_lukuang_day_all!G21)</f>
         <v/>
       </c>
       <c r="J24" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H21="","",_lukuang_day_hour!H21)</f>
+        <f>IF(_lukuang_day_all!H21="","",_lukuang_day_all!H21)</f>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I21="","",_lukuang_day_hour!I21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I21="","",_lukuang_day_all!I21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>0.875</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C22="","",_lukuang_day_hour!C22)</f>
+        <f>IF(_lukuang_day_all!C22="","",_lukuang_day_all!C22)</f>
         <v/>
       </c>
       <c r="F25" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D22="","",_lukuang_day_hour!D22)</f>
+        <f>IF(_lukuang_day_all!D22="","",_lukuang_day_all!D22)</f>
         <v/>
       </c>
       <c r="G25" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E22="","",_lukuang_day_hour!E22)</f>
+        <f>IF(_lukuang_day_all!E22="","",_lukuang_day_all!E22)</f>
         <v/>
       </c>
       <c r="H25" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F22="","",_lukuang_day_hour!F22)</f>
+        <f>IF(_lukuang_day_all!F22="","",_lukuang_day_all!F22)</f>
         <v/>
       </c>
       <c r="I25" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G22="","",_lukuang_day_hour!G22)</f>
+        <f>IF(_lukuang_day_all!G22="","",_lukuang_day_all!G22)</f>
         <v/>
       </c>
       <c r="J25" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H22="","",_lukuang_day_hour!H22)</f>
+        <f>IF(_lukuang_day_all!H22="","",_lukuang_day_all!H22)</f>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I22="","",_lukuang_day_hour!I22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I22="","",_lukuang_day_all!I22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>0.91666666666666696</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C23="","",_lukuang_day_hour!C23)</f>
+        <f>IF(_lukuang_day_all!C23="","",_lukuang_day_all!C23)</f>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D23="","",_lukuang_day_hour!D23)</f>
+        <f>IF(_lukuang_day_all!D23="","",_lukuang_day_all!D23)</f>
         <v/>
       </c>
       <c r="G26" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E23="","",_lukuang_day_hour!E23)</f>
+        <f>IF(_lukuang_day_all!E23="","",_lukuang_day_all!E23)</f>
         <v/>
       </c>
       <c r="H26" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F23="","",_lukuang_day_hour!F23)</f>
+        <f>IF(_lukuang_day_all!F23="","",_lukuang_day_all!F23)</f>
         <v/>
       </c>
       <c r="I26" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G23="","",_lukuang_day_hour!G23)</f>
+        <f>IF(_lukuang_day_all!G23="","",_lukuang_day_all!G23)</f>
         <v/>
       </c>
       <c r="J26" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H23="","",_lukuang_day_hour!H23)</f>
+        <f>IF(_lukuang_day_all!H23="","",_lukuang_day_all!H23)</f>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I23="","",_lukuang_day_hour!I23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I23="","",_lukuang_day_all!I23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>0.95833333333333304</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C24="","",_lukuang_day_hour!C24)</f>
+        <f>IF(_lukuang_day_all!C24="","",_lukuang_day_all!C24)</f>
         <v/>
       </c>
       <c r="F27" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D24="","",_lukuang_day_hour!D24)</f>
+        <f>IF(_lukuang_day_all!D24="","",_lukuang_day_all!D24)</f>
         <v/>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E24="","",_lukuang_day_hour!E24)</f>
+        <f>IF(_lukuang_day_all!E24="","",_lukuang_day_all!E24)</f>
         <v/>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F24="","",_lukuang_day_hour!F24)</f>
+        <f>IF(_lukuang_day_all!F24="","",_lukuang_day_all!F24)</f>
         <v/>
       </c>
       <c r="I27" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G24="","",_lukuang_day_hour!G24)</f>
+        <f>IF(_lukuang_day_all!G24="","",_lukuang_day_all!G24)</f>
         <v/>
       </c>
       <c r="J27" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H24="","",_lukuang_day_hour!H24)</f>
+        <f>IF(_lukuang_day_all!H24="","",_lukuang_day_all!H24)</f>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I24="","",_lukuang_day_hour!I24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="18" customHeight="1">
+        <f>IF(_lukuang_day_all!I24="","",_lukuang_day_all!I24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>1</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="str">
-        <f>IF(_lukuang_day_hour!C25="","",_lukuang_day_hour!C25)</f>
+        <f>IF(_lukuang_day_all!C25="","",_lukuang_day_all!C25)</f>
         <v/>
       </c>
       <c r="F28" s="2" t="str">
-        <f>IF(_lukuang_day_hour!D25="","",_lukuang_day_hour!D25)</f>
+        <f>IF(_lukuang_day_all!D25="","",_lukuang_day_all!D25)</f>
         <v/>
       </c>
       <c r="G28" s="2" t="str">
-        <f>IF(_lukuang_day_hour!E25="","",_lukuang_day_hour!E25)</f>
+        <f>IF(_lukuang_day_all!E25="","",_lukuang_day_all!E25)</f>
         <v/>
       </c>
       <c r="H28" s="2" t="str">
-        <f>IF(_lukuang_day_hour!F25="","",_lukuang_day_hour!F25)</f>
+        <f>IF(_lukuang_day_all!F25="","",_lukuang_day_all!F25)</f>
         <v/>
       </c>
       <c r="I28" s="2" t="str">
-        <f>IF(_lukuang_day_hour!G25="","",_lukuang_day_hour!G25)</f>
+        <f>IF(_lukuang_day_all!G25="","",_lukuang_day_all!G25)</f>
         <v/>
       </c>
       <c r="J28" s="2" t="str">
-        <f>IF(_lukuang_day_hour!H25="","",_lukuang_day_hour!H25)</f>
+        <f>IF(_lukuang_day_all!H25="","",_lukuang_day_all!H25)</f>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f>IF(_lukuang_day_hour!I25="","",_lukuang_day_hour!I25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1">
+        <f>IF(_lukuang_day_all!I25="","",_lukuang_day_all!I25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f>IFERROR(AVERAGE(C5:C28),"")</f>
+        <f t="shared" ref="C29:K29" si="0">IFERROR(AVERAGE(C5:C28),"")</f>
         <v/>
       </c>
       <c r="D29" s="4" t="str">
-        <f>IFERROR(AVERAGE(D5:D28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E29" s="4" t="str">
-        <f>IFERROR(AVERAGE(E5:E28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" s="4" t="str">
-        <f>IFERROR(AVERAGE(F5:F28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" s="4" t="str">
-        <f>IFERROR(AVERAGE(G5:G28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H29" s="4" t="str">
-        <f>IFERROR(AVERAGE(H5:H28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I29" s="4" t="str">
-        <f>IFERROR(AVERAGE(I5:I28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="4" t="str">
-        <f>IFERROR(AVERAGE(J5:J28),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K29" s="5" t="str">
-        <f>IFERROR(AVERAGE(K5:K28),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickTop="1"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:B4"/>
@@ -1757,16 +1769,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="75.75" customHeight="1" thickTop="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="75.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10" t="s">
@@ -1798,14 +1810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1813,14 +1825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>

--- a/excel/finished/wg8#高炉/小时炉况输入表.xlsx
+++ b/excel/finished/wg8#高炉/小时炉况输入表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D83982-4D9E-4F90-B029-84CEF7E2E6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD6B7E5-28BD-4169-AF48-9AA0D1AD71C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时炉况输入表" sheetId="1" r:id="rId1"/>
-    <sheet name="_lukuang_day_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_tag_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -493,6 +493,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,34 +788,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
-    <col min="3" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="11" width="11.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -846,7 +848,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
@@ -882,31 +884,31 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="str">
-        <f>IF(_lukuang_day_all!C2="","",_lukuang_day_all!C2)</f>
+        <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
         <v/>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(_lukuang_day_all!D2="","",_lukuang_day_all!D2)</f>
+        <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
         <v/>
       </c>
       <c r="G5" s="2" t="str">
-        <f>IF(_lukuang_day_all!E2="","",_lukuang_day_all!E2)</f>
+        <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
         <v/>
       </c>
       <c r="H5" s="2" t="str">
-        <f>IF(_lukuang_day_all!F2="","",_lukuang_day_all!F2)</f>
+        <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
         <v/>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IF(_lukuang_day_all!G2="","",_lukuang_day_all!G2)</f>
+        <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
         <v/>
       </c>
       <c r="J5" s="2" t="str">
-        <f>IF(_lukuang_day_all!H2="","",_lukuang_day_all!H2)</f>
+        <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
         <v/>
       </c>
       <c r="K5" s="3" t="str">
-        <f>IF(_lukuang_day_all!I2="","",_lukuang_day_all!I2)</f>
+        <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
         <v/>
       </c>
     </row>
@@ -914,34 +916,34 @@
       <c r="B6" s="8">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="str">
-        <f>IF(_lukuang_day_all!C3="","",_lukuang_day_all!C3)</f>
+        <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(_lukuang_day_all!D3="","",_lukuang_day_all!D3)</f>
+        <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
         <v/>
       </c>
       <c r="G6" s="2" t="str">
-        <f>IF(_lukuang_day_all!E3="","",_lukuang_day_all!E3)</f>
+        <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
         <v/>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(_lukuang_day_all!F3="","",_lukuang_day_all!F3)</f>
+        <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
         <v/>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(_lukuang_day_all!G3="","",_lukuang_day_all!G3)</f>
+        <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
         <v/>
       </c>
       <c r="J6" s="2" t="str">
-        <f>IF(_lukuang_day_all!H3="","",_lukuang_day_all!H3)</f>
+        <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
         <v/>
       </c>
       <c r="K6" s="3" t="str">
-        <f>IF(_lukuang_day_all!I3="","",_lukuang_day_all!I3)</f>
+        <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
         <v/>
       </c>
     </row>
@@ -952,31 +954,31 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
-        <f>IF(_lukuang_day_all!C4="","",_lukuang_day_all!C4)</f>
+        <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF(_lukuang_day_all!D4="","",_lukuang_day_all!D4)</f>
+        <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
         <v/>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IF(_lukuang_day_all!E4="","",_lukuang_day_all!E4)</f>
+        <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
         <v/>
       </c>
       <c r="H7" s="2" t="str">
-        <f>IF(_lukuang_day_all!F4="","",_lukuang_day_all!F4)</f>
+        <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
         <v/>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(_lukuang_day_all!G4="","",_lukuang_day_all!G4)</f>
+        <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
         <v/>
       </c>
       <c r="J7" s="2" t="str">
-        <f>IF(_lukuang_day_all!H4="","",_lukuang_day_all!H4)</f>
+        <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
         <v/>
       </c>
       <c r="K7" s="3" t="str">
-        <f>IF(_lukuang_day_all!I4="","",_lukuang_day_all!I4)</f>
+        <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
         <v/>
       </c>
     </row>
@@ -987,31 +989,31 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="str">
-        <f>IF(_lukuang_day_all!C5="","",_lukuang_day_all!C5)</f>
+        <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(_lukuang_day_all!D5="","",_lukuang_day_all!D5)</f>
+        <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
         <v/>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF(_lukuang_day_all!E5="","",_lukuang_day_all!E5)</f>
+        <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
         <v/>
       </c>
       <c r="H8" s="2" t="str">
-        <f>IF(_lukuang_day_all!F5="","",_lukuang_day_all!F5)</f>
+        <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
         <v/>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(_lukuang_day_all!G5="","",_lukuang_day_all!G5)</f>
+        <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
         <v/>
       </c>
       <c r="J8" s="2" t="str">
-        <f>IF(_lukuang_day_all!H5="","",_lukuang_day_all!H5)</f>
+        <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
         <v/>
       </c>
       <c r="K8" s="3" t="str">
-        <f>IF(_lukuang_day_all!I5="","",_lukuang_day_all!I5)</f>
+        <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
         <v/>
       </c>
     </row>
@@ -1022,31 +1024,31 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="str">
-        <f>IF(_lukuang_day_all!C6="","",_lukuang_day_all!C6)</f>
+        <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(_lukuang_day_all!D6="","",_lukuang_day_all!D6)</f>
+        <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF(_lukuang_day_all!E6="","",_lukuang_day_all!E6)</f>
+        <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
         <v/>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IF(_lukuang_day_all!F6="","",_lukuang_day_all!F6)</f>
+        <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
         <v/>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(_lukuang_day_all!G6="","",_lukuang_day_all!G6)</f>
+        <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
         <v/>
       </c>
       <c r="J9" s="2" t="str">
-        <f>IF(_lukuang_day_all!H6="","",_lukuang_day_all!H6)</f>
+        <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
         <v/>
       </c>
       <c r="K9" s="3" t="str">
-        <f>IF(_lukuang_day_all!I6="","",_lukuang_day_all!I6)</f>
+        <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
         <v/>
       </c>
     </row>
@@ -1057,31 +1059,31 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="str">
-        <f>IF(_lukuang_day_all!C7="","",_lukuang_day_all!C7)</f>
+        <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
         <v/>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF(_lukuang_day_all!D7="","",_lukuang_day_all!D7)</f>
+        <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
         <v/>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(_lukuang_day_all!E7="","",_lukuang_day_all!E7)</f>
+        <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
         <v/>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IF(_lukuang_day_all!F7="","",_lukuang_day_all!F7)</f>
+        <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
         <v/>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(_lukuang_day_all!G7="","",_lukuang_day_all!G7)</f>
+        <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
         <v/>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IF(_lukuang_day_all!H7="","",_lukuang_day_all!H7)</f>
+        <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
         <v/>
       </c>
       <c r="K10" s="3" t="str">
-        <f>IF(_lukuang_day_all!I7="","",_lukuang_day_all!I7)</f>
+        <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
         <v/>
       </c>
     </row>
@@ -1092,31 +1094,31 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="str">
-        <f>IF(_lukuang_day_all!C8="","",_lukuang_day_all!C8)</f>
+        <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f>IF(_lukuang_day_all!D8="","",_lukuang_day_all!D8)</f>
+        <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
         <v/>
       </c>
       <c r="G11" s="2" t="str">
-        <f>IF(_lukuang_day_all!E8="","",_lukuang_day_all!E8)</f>
+        <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
         <v/>
       </c>
       <c r="H11" s="2" t="str">
-        <f>IF(_lukuang_day_all!F8="","",_lukuang_day_all!F8)</f>
+        <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
         <v/>
       </c>
       <c r="I11" s="2" t="str">
-        <f>IF(_lukuang_day_all!G8="","",_lukuang_day_all!G8)</f>
+        <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
         <v/>
       </c>
       <c r="J11" s="2" t="str">
-        <f>IF(_lukuang_day_all!H8="","",_lukuang_day_all!H8)</f>
+        <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
         <v/>
       </c>
       <c r="K11" s="3" t="str">
-        <f>IF(_lukuang_day_all!I8="","",_lukuang_day_all!I8)</f>
+        <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
         <v/>
       </c>
     </row>
@@ -1127,31 +1129,31 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="str">
-        <f>IF(_lukuang_day_all!C9="","",_lukuang_day_all!C9)</f>
+        <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF(_lukuang_day_all!D9="","",_lukuang_day_all!D9)</f>
+        <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
         <v/>
       </c>
       <c r="G12" s="2" t="str">
-        <f>IF(_lukuang_day_all!E9="","",_lukuang_day_all!E9)</f>
+        <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
         <v/>
       </c>
       <c r="H12" s="2" t="str">
-        <f>IF(_lukuang_day_all!F9="","",_lukuang_day_all!F9)</f>
+        <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
         <v/>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(_lukuang_day_all!G9="","",_lukuang_day_all!G9)</f>
+        <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
         <v/>
       </c>
       <c r="J12" s="2" t="str">
-        <f>IF(_lukuang_day_all!H9="","",_lukuang_day_all!H9)</f>
+        <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
         <v/>
       </c>
       <c r="K12" s="3" t="str">
-        <f>IF(_lukuang_day_all!I9="","",_lukuang_day_all!I9)</f>
+        <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
         <v/>
       </c>
     </row>
@@ -1162,31 +1164,31 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="str">
-        <f>IF(_lukuang_day_all!C10="","",_lukuang_day_all!C10)</f>
+        <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF(_lukuang_day_all!D10="","",_lukuang_day_all!D10)</f>
+        <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
         <v/>
       </c>
       <c r="G13" s="2" t="str">
-        <f>IF(_lukuang_day_all!E10="","",_lukuang_day_all!E10)</f>
+        <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
         <v/>
       </c>
       <c r="H13" s="2" t="str">
-        <f>IF(_lukuang_day_all!F10="","",_lukuang_day_all!F10)</f>
+        <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
         <v/>
       </c>
       <c r="I13" s="2" t="str">
-        <f>IF(_lukuang_day_all!G10="","",_lukuang_day_all!G10)</f>
+        <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
         <v/>
       </c>
       <c r="J13" s="2" t="str">
-        <f>IF(_lukuang_day_all!H10="","",_lukuang_day_all!H10)</f>
+        <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
         <v/>
       </c>
       <c r="K13" s="3" t="str">
-        <f>IF(_lukuang_day_all!I10="","",_lukuang_day_all!I10)</f>
+        <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
         <v/>
       </c>
     </row>
@@ -1197,31 +1199,31 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="str">
-        <f>IF(_lukuang_day_all!C11="","",_lukuang_day_all!C11)</f>
+        <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF(_lukuang_day_all!D11="","",_lukuang_day_all!D11)</f>
+        <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
         <v/>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(_lukuang_day_all!E11="","",_lukuang_day_all!E11)</f>
+        <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
         <v/>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IF(_lukuang_day_all!F11="","",_lukuang_day_all!F11)</f>
+        <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
         <v/>
       </c>
       <c r="I14" s="2" t="str">
-        <f>IF(_lukuang_day_all!G11="","",_lukuang_day_all!G11)</f>
+        <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
         <v/>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IF(_lukuang_day_all!H11="","",_lukuang_day_all!H11)</f>
+        <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
         <v/>
       </c>
       <c r="K14" s="3" t="str">
-        <f>IF(_lukuang_day_all!I11="","",_lukuang_day_all!I11)</f>
+        <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
         <v/>
       </c>
     </row>
@@ -1232,31 +1234,31 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="str">
-        <f>IF(_lukuang_day_all!C12="","",_lukuang_day_all!C12)</f>
+        <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF(_lukuang_day_all!D12="","",_lukuang_day_all!D12)</f>
+        <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
         <v/>
       </c>
       <c r="G15" s="2" t="str">
-        <f>IF(_lukuang_day_all!E12="","",_lukuang_day_all!E12)</f>
+        <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
         <v/>
       </c>
       <c r="H15" s="2" t="str">
-        <f>IF(_lukuang_day_all!F12="","",_lukuang_day_all!F12)</f>
+        <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
         <v/>
       </c>
       <c r="I15" s="2" t="str">
-        <f>IF(_lukuang_day_all!G12="","",_lukuang_day_all!G12)</f>
+        <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
         <v/>
       </c>
       <c r="J15" s="2" t="str">
-        <f>IF(_lukuang_day_all!H12="","",_lukuang_day_all!H12)</f>
+        <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
         <v/>
       </c>
       <c r="K15" s="3" t="str">
-        <f>IF(_lukuang_day_all!I12="","",_lukuang_day_all!I12)</f>
+        <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
         <v/>
       </c>
     </row>
@@ -1267,31 +1269,31 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="str">
-        <f>IF(_lukuang_day_all!C13="","",_lukuang_day_all!C13)</f>
+        <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF(_lukuang_day_all!D13="","",_lukuang_day_all!D13)</f>
+        <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
         <v/>
       </c>
       <c r="G16" s="2" t="str">
-        <f>IF(_lukuang_day_all!E13="","",_lukuang_day_all!E13)</f>
+        <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
         <v/>
       </c>
       <c r="H16" s="2" t="str">
-        <f>IF(_lukuang_day_all!F13="","",_lukuang_day_all!F13)</f>
+        <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
         <v/>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(_lukuang_day_all!G13="","",_lukuang_day_all!G13)</f>
+        <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
         <v/>
       </c>
       <c r="J16" s="2" t="str">
-        <f>IF(_lukuang_day_all!H13="","",_lukuang_day_all!H13)</f>
+        <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
         <v/>
       </c>
       <c r="K16" s="3" t="str">
-        <f>IF(_lukuang_day_all!I13="","",_lukuang_day_all!I13)</f>
+        <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
         <v/>
       </c>
     </row>
@@ -1302,31 +1304,31 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="str">
-        <f>IF(_lukuang_day_all!C14="","",_lukuang_day_all!C14)</f>
+        <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
         <v/>
       </c>
       <c r="F17" s="2" t="str">
-        <f>IF(_lukuang_day_all!D14="","",_lukuang_day_all!D14)</f>
+        <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
         <v/>
       </c>
       <c r="G17" s="2" t="str">
-        <f>IF(_lukuang_day_all!E14="","",_lukuang_day_all!E14)</f>
+        <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
         <v/>
       </c>
       <c r="H17" s="2" t="str">
-        <f>IF(_lukuang_day_all!F14="","",_lukuang_day_all!F14)</f>
+        <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
         <v/>
       </c>
       <c r="I17" s="2" t="str">
-        <f>IF(_lukuang_day_all!G14="","",_lukuang_day_all!G14)</f>
+        <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
         <v/>
       </c>
       <c r="J17" s="2" t="str">
-        <f>IF(_lukuang_day_all!H14="","",_lukuang_day_all!H14)</f>
+        <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
         <v/>
       </c>
       <c r="K17" s="3" t="str">
-        <f>IF(_lukuang_day_all!I14="","",_lukuang_day_all!I14)</f>
+        <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
         <v/>
       </c>
     </row>
@@ -1337,31 +1339,31 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="str">
-        <f>IF(_lukuang_day_all!C15="","",_lukuang_day_all!C15)</f>
+        <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF(_lukuang_day_all!D15="","",_lukuang_day_all!D15)</f>
+        <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
         <v/>
       </c>
       <c r="G18" s="2" t="str">
-        <f>IF(_lukuang_day_all!E15="","",_lukuang_day_all!E15)</f>
+        <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
         <v/>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IF(_lukuang_day_all!F15="","",_lukuang_day_all!F15)</f>
+        <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
         <v/>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(_lukuang_day_all!G15="","",_lukuang_day_all!G15)</f>
+        <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
         <v/>
       </c>
       <c r="J18" s="2" t="str">
-        <f>IF(_lukuang_day_all!H15="","",_lukuang_day_all!H15)</f>
+        <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
         <v/>
       </c>
       <c r="K18" s="3" t="str">
-        <f>IF(_lukuang_day_all!I15="","",_lukuang_day_all!I15)</f>
+        <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
         <v/>
       </c>
     </row>
@@ -1372,31 +1374,31 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="str">
-        <f>IF(_lukuang_day_all!C16="","",_lukuang_day_all!C16)</f>
+        <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f>IF(_lukuang_day_all!D16="","",_lukuang_day_all!D16)</f>
+        <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
         <v/>
       </c>
       <c r="G19" s="2" t="str">
-        <f>IF(_lukuang_day_all!E16="","",_lukuang_day_all!E16)</f>
+        <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
         <v/>
       </c>
       <c r="H19" s="2" t="str">
-        <f>IF(_lukuang_day_all!F16="","",_lukuang_day_all!F16)</f>
+        <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
         <v/>
       </c>
       <c r="I19" s="2" t="str">
-        <f>IF(_lukuang_day_all!G16="","",_lukuang_day_all!G16)</f>
+        <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
         <v/>
       </c>
       <c r="J19" s="2" t="str">
-        <f>IF(_lukuang_day_all!H16="","",_lukuang_day_all!H16)</f>
+        <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
         <v/>
       </c>
       <c r="K19" s="3" t="str">
-        <f>IF(_lukuang_day_all!I16="","",_lukuang_day_all!I16)</f>
+        <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
         <v/>
       </c>
     </row>
@@ -1407,31 +1409,31 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="str">
-        <f>IF(_lukuang_day_all!C17="","",_lukuang_day_all!C17)</f>
+        <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF(_lukuang_day_all!D17="","",_lukuang_day_all!D17)</f>
+        <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
         <v/>
       </c>
       <c r="G20" s="2" t="str">
-        <f>IF(_lukuang_day_all!E17="","",_lukuang_day_all!E17)</f>
+        <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
         <v/>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(_lukuang_day_all!F17="","",_lukuang_day_all!F17)</f>
+        <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
         <v/>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(_lukuang_day_all!G17="","",_lukuang_day_all!G17)</f>
+        <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
         <v/>
       </c>
       <c r="J20" s="2" t="str">
-        <f>IF(_lukuang_day_all!H17="","",_lukuang_day_all!H17)</f>
+        <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
         <v/>
       </c>
       <c r="K20" s="3" t="str">
-        <f>IF(_lukuang_day_all!I17="","",_lukuang_day_all!I17)</f>
+        <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
         <v/>
       </c>
     </row>
@@ -1442,31 +1444,31 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="str">
-        <f>IF(_lukuang_day_all!C18="","",_lukuang_day_all!C18)</f>
+        <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f>IF(_lukuang_day_all!D18="","",_lukuang_day_all!D18)</f>
+        <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
         <v/>
       </c>
       <c r="G21" s="2" t="str">
-        <f>IF(_lukuang_day_all!E18="","",_lukuang_day_all!E18)</f>
+        <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
         <v/>
       </c>
       <c r="H21" s="2" t="str">
-        <f>IF(_lukuang_day_all!F18="","",_lukuang_day_all!F18)</f>
+        <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
         <v/>
       </c>
       <c r="I21" s="2" t="str">
-        <f>IF(_lukuang_day_all!G18="","",_lukuang_day_all!G18)</f>
+        <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
         <v/>
       </c>
       <c r="J21" s="2" t="str">
-        <f>IF(_lukuang_day_all!H18="","",_lukuang_day_all!H18)</f>
+        <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
         <v/>
       </c>
       <c r="K21" s="3" t="str">
-        <f>IF(_lukuang_day_all!I18="","",_lukuang_day_all!I18)</f>
+        <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
         <v/>
       </c>
     </row>
@@ -1477,31 +1479,31 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="str">
-        <f>IF(_lukuang_day_all!C19="","",_lukuang_day_all!C19)</f>
+        <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF(_lukuang_day_all!D19="","",_lukuang_day_all!D19)</f>
+        <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
         <v/>
       </c>
       <c r="G22" s="2" t="str">
-        <f>IF(_lukuang_day_all!E19="","",_lukuang_day_all!E19)</f>
+        <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
         <v/>
       </c>
       <c r="H22" s="2" t="str">
-        <f>IF(_lukuang_day_all!F19="","",_lukuang_day_all!F19)</f>
+        <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
         <v/>
       </c>
       <c r="I22" s="2" t="str">
-        <f>IF(_lukuang_day_all!G19="","",_lukuang_day_all!G19)</f>
+        <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
         <v/>
       </c>
       <c r="J22" s="2" t="str">
-        <f>IF(_lukuang_day_all!H19="","",_lukuang_day_all!H19)</f>
+        <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
         <v/>
       </c>
       <c r="K22" s="3" t="str">
-        <f>IF(_lukuang_day_all!I19="","",_lukuang_day_all!I19)</f>
+        <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
         <v/>
       </c>
     </row>
@@ -1512,31 +1514,31 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="str">
-        <f>IF(_lukuang_day_all!C20="","",_lukuang_day_all!C20)</f>
+        <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <f>IF(_lukuang_day_all!D20="","",_lukuang_day_all!D20)</f>
+        <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
         <v/>
       </c>
       <c r="G23" s="2" t="str">
-        <f>IF(_lukuang_day_all!E20="","",_lukuang_day_all!E20)</f>
+        <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
         <v/>
       </c>
       <c r="H23" s="2" t="str">
-        <f>IF(_lukuang_day_all!F20="","",_lukuang_day_all!F20)</f>
+        <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
         <v/>
       </c>
       <c r="I23" s="2" t="str">
-        <f>IF(_lukuang_day_all!G20="","",_lukuang_day_all!G20)</f>
+        <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
         <v/>
       </c>
       <c r="J23" s="2" t="str">
-        <f>IF(_lukuang_day_all!H20="","",_lukuang_day_all!H20)</f>
+        <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f>IF(_lukuang_day_all!I20="","",_lukuang_day_all!I20)</f>
+        <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
         <v/>
       </c>
     </row>
@@ -1547,31 +1549,31 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="str">
-        <f>IF(_lukuang_day_all!C21="","",_lukuang_day_all!C21)</f>
+        <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
         <v/>
       </c>
       <c r="F24" s="2" t="str">
-        <f>IF(_lukuang_day_all!D21="","",_lukuang_day_all!D21)</f>
+        <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
         <v/>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IF(_lukuang_day_all!E21="","",_lukuang_day_all!E21)</f>
+        <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
         <v/>
       </c>
       <c r="H24" s="2" t="str">
-        <f>IF(_lukuang_day_all!F21="","",_lukuang_day_all!F21)</f>
+        <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
         <v/>
       </c>
       <c r="I24" s="2" t="str">
-        <f>IF(_lukuang_day_all!G21="","",_lukuang_day_all!G21)</f>
+        <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
         <v/>
       </c>
       <c r="J24" s="2" t="str">
-        <f>IF(_lukuang_day_all!H21="","",_lukuang_day_all!H21)</f>
+        <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f>IF(_lukuang_day_all!I21="","",_lukuang_day_all!I21)</f>
+        <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
         <v/>
       </c>
     </row>
@@ -1582,31 +1584,31 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="str">
-        <f>IF(_lukuang_day_all!C22="","",_lukuang_day_all!C22)</f>
+        <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
         <v/>
       </c>
       <c r="F25" s="2" t="str">
-        <f>IF(_lukuang_day_all!D22="","",_lukuang_day_all!D22)</f>
+        <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
         <v/>
       </c>
       <c r="G25" s="2" t="str">
-        <f>IF(_lukuang_day_all!E22="","",_lukuang_day_all!E22)</f>
+        <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
         <v/>
       </c>
       <c r="H25" s="2" t="str">
-        <f>IF(_lukuang_day_all!F22="","",_lukuang_day_all!F22)</f>
+        <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
         <v/>
       </c>
       <c r="I25" s="2" t="str">
-        <f>IF(_lukuang_day_all!G22="","",_lukuang_day_all!G22)</f>
+        <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
         <v/>
       </c>
       <c r="J25" s="2" t="str">
-        <f>IF(_lukuang_day_all!H22="","",_lukuang_day_all!H22)</f>
+        <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f>IF(_lukuang_day_all!I22="","",_lukuang_day_all!I22)</f>
+        <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
         <v/>
       </c>
     </row>
@@ -1617,31 +1619,31 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="str">
-        <f>IF(_lukuang_day_all!C23="","",_lukuang_day_all!C23)</f>
+        <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF(_lukuang_day_all!D23="","",_lukuang_day_all!D23)</f>
+        <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
         <v/>
       </c>
       <c r="G26" s="2" t="str">
-        <f>IF(_lukuang_day_all!E23="","",_lukuang_day_all!E23)</f>
+        <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
         <v/>
       </c>
       <c r="H26" s="2" t="str">
-        <f>IF(_lukuang_day_all!F23="","",_lukuang_day_all!F23)</f>
+        <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
         <v/>
       </c>
       <c r="I26" s="2" t="str">
-        <f>IF(_lukuang_day_all!G23="","",_lukuang_day_all!G23)</f>
+        <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
         <v/>
       </c>
       <c r="J26" s="2" t="str">
-        <f>IF(_lukuang_day_all!H23="","",_lukuang_day_all!H23)</f>
+        <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f>IF(_lukuang_day_all!I23="","",_lukuang_day_all!I23)</f>
+        <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
         <v/>
       </c>
     </row>
@@ -1652,31 +1654,31 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="str">
-        <f>IF(_lukuang_day_all!C24="","",_lukuang_day_all!C24)</f>
+        <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
         <v/>
       </c>
       <c r="F27" s="2" t="str">
-        <f>IF(_lukuang_day_all!D24="","",_lukuang_day_all!D24)</f>
+        <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
         <v/>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(_lukuang_day_all!E24="","",_lukuang_day_all!E24)</f>
+        <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
         <v/>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(_lukuang_day_all!F24="","",_lukuang_day_all!F24)</f>
+        <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
         <v/>
       </c>
       <c r="I27" s="2" t="str">
-        <f>IF(_lukuang_day_all!G24="","",_lukuang_day_all!G24)</f>
+        <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
         <v/>
       </c>
       <c r="J27" s="2" t="str">
-        <f>IF(_lukuang_day_all!H24="","",_lukuang_day_all!H24)</f>
+        <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f>IF(_lukuang_day_all!I24="","",_lukuang_day_all!I24)</f>
+        <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
         <v/>
       </c>
     </row>
@@ -1687,31 +1689,31 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="str">
-        <f>IF(_lukuang_day_all!C25="","",_lukuang_day_all!C25)</f>
+        <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
         <v/>
       </c>
       <c r="F28" s="2" t="str">
-        <f>IF(_lukuang_day_all!D25="","",_lukuang_day_all!D25)</f>
+        <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
         <v/>
       </c>
       <c r="G28" s="2" t="str">
-        <f>IF(_lukuang_day_all!E25="","",_lukuang_day_all!E25)</f>
+        <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
         <v/>
       </c>
       <c r="H28" s="2" t="str">
-        <f>IF(_lukuang_day_all!F25="","",_lukuang_day_all!F25)</f>
+        <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
         <v/>
       </c>
       <c r="I28" s="2" t="str">
-        <f>IF(_lukuang_day_all!G25="","",_lukuang_day_all!G25)</f>
+        <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
         <v/>
       </c>
       <c r="J28" s="2" t="str">
-        <f>IF(_lukuang_day_all!H25="","",_lukuang_day_all!H25)</f>
+        <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f>IF(_lukuang_day_all!I25="","",_lukuang_day_all!I25)</f>
+        <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
         <v/>
       </c>
     </row>
@@ -1772,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/finished/wg8#高炉/小时炉况输入表.xlsx
+++ b/excel/finished/wg8#高炉/小时炉况输入表.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD6B7E5-28BD-4169-AF48-9AA0D1AD71C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F0F0B-365E-4D34-AB9E-DF4B7E862B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="26955" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1620" windowWidth="24480" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时炉况输入表" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_day_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_tag_day_hour1" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <r>
       <t xml:space="preserve">   </t>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>ZP_BF8_L1R_BD_ColdBlastFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_BF8_L2M_ChargeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_BF8_L2M_SH_ChargeCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -478,12 +486,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,7 +495,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,63 +806,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="2:11" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -879,841 +883,982 @@
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IF(_tag_day_hour1!A2="","",_tag_day_hour1!A2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IF(_tag_day_hour1!B2="","",_tag_day_hour1!B2)</f>
+        <v/>
+      </c>
       <c r="E5" s="2" t="str">
-        <f>IF(_tag_day_all!C2="","",_tag_day_all!C2)</f>
+        <f>IF(_tag_day_hour1!C2="","",_tag_day_hour1!C2)</f>
         <v/>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(_tag_day_all!D2="","",_tag_day_all!D2)</f>
+        <f>IF(_tag_day_hour1!D2="","",_tag_day_hour1!D2)</f>
         <v/>
       </c>
       <c r="G5" s="2" t="str">
-        <f>IF(_tag_day_all!E2="","",_tag_day_all!E2)</f>
+        <f>IF(_tag_day_hour1!E2="","",_tag_day_hour1!E2)</f>
         <v/>
       </c>
       <c r="H5" s="2" t="str">
-        <f>IF(_tag_day_all!F2="","",_tag_day_all!F2)</f>
+        <f>IF(_tag_day_hour1!F2="","",_tag_day_hour1!F2)</f>
         <v/>
       </c>
       <c r="I5" s="2" t="str">
-        <f>IF(_tag_day_all!G2="","",_tag_day_all!G2)</f>
+        <f>IF(_tag_day_hour1!G2="","",_tag_day_hour1!G2)</f>
         <v/>
       </c>
       <c r="J5" s="2" t="str">
-        <f>IF(_tag_day_all!H2="","",_tag_day_all!H2)</f>
+        <f>IF(_tag_day_hour1!H2="","",_tag_day_hour1!H2)</f>
         <v/>
       </c>
       <c r="K5" s="3" t="str">
-        <f>IF(_tag_day_all!I2="","",_tag_day_all!I2)</f>
+        <f>IF(_tag_day_hour1!I2="","",_tag_day_hour1!I2)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IF(_tag_day_hour1!A3="","",_tag_day_hour1!A3)</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IF(_tag_day_hour1!B3="","",_tag_day_hour1!B3)</f>
+        <v/>
+      </c>
       <c r="E6" s="2" t="str">
-        <f>IF(_tag_day_all!C3="","",_tag_day_all!C3)</f>
+        <f>IF(_tag_day_hour1!C3="","",_tag_day_hour1!C3)</f>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(_tag_day_all!D3="","",_tag_day_all!D3)</f>
+        <f>IF(_tag_day_hour1!D3="","",_tag_day_hour1!D3)</f>
         <v/>
       </c>
       <c r="G6" s="2" t="str">
-        <f>IF(_tag_day_all!E3="","",_tag_day_all!E3)</f>
+        <f>IF(_tag_day_hour1!E3="","",_tag_day_hour1!E3)</f>
         <v/>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(_tag_day_all!F3="","",_tag_day_all!F3)</f>
+        <f>IF(_tag_day_hour1!F3="","",_tag_day_hour1!F3)</f>
         <v/>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(_tag_day_all!G3="","",_tag_day_all!G3)</f>
+        <f>IF(_tag_day_hour1!G3="","",_tag_day_hour1!G3)</f>
         <v/>
       </c>
       <c r="J6" s="2" t="str">
-        <f>IF(_tag_day_all!H3="","",_tag_day_all!H3)</f>
+        <f>IF(_tag_day_hour1!H3="","",_tag_day_hour1!H3)</f>
         <v/>
       </c>
       <c r="K6" s="3" t="str">
-        <f>IF(_tag_day_all!I3="","",_tag_day_all!I3)</f>
+        <f>IF(_tag_day_hour1!I3="","",_tag_day_hour1!I3)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IF(_tag_day_hour1!A4="","",_tag_day_hour1!A4)</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IF(_tag_day_hour1!B4="","",_tag_day_hour1!B4)</f>
+        <v/>
+      </c>
       <c r="E7" s="2" t="str">
-        <f>IF(_tag_day_all!C4="","",_tag_day_all!C4)</f>
+        <f>IF(_tag_day_hour1!C4="","",_tag_day_hour1!C4)</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF(_tag_day_all!D4="","",_tag_day_all!D4)</f>
+        <f>IF(_tag_day_hour1!D4="","",_tag_day_hour1!D4)</f>
         <v/>
       </c>
       <c r="G7" s="2" t="str">
-        <f>IF(_tag_day_all!E4="","",_tag_day_all!E4)</f>
+        <f>IF(_tag_day_hour1!E4="","",_tag_day_hour1!E4)</f>
         <v/>
       </c>
       <c r="H7" s="2" t="str">
-        <f>IF(_tag_day_all!F4="","",_tag_day_all!F4)</f>
+        <f>IF(_tag_day_hour1!F4="","",_tag_day_hour1!F4)</f>
         <v/>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(_tag_day_all!G4="","",_tag_day_all!G4)</f>
+        <f>IF(_tag_day_hour1!G4="","",_tag_day_hour1!G4)</f>
         <v/>
       </c>
       <c r="J7" s="2" t="str">
-        <f>IF(_tag_day_all!H4="","",_tag_day_all!H4)</f>
+        <f>IF(_tag_day_hour1!H4="","",_tag_day_hour1!H4)</f>
         <v/>
       </c>
       <c r="K7" s="3" t="str">
-        <f>IF(_tag_day_all!I4="","",_tag_day_all!I4)</f>
+        <f>IF(_tag_day_hour1!I4="","",_tag_day_hour1!I4)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IF(_tag_day_hour1!A5="","",_tag_day_hour1!A5)</f>
+        <v/>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(_tag_day_hour1!B5="","",_tag_day_hour1!B5)</f>
+        <v/>
+      </c>
       <c r="E8" s="2" t="str">
-        <f>IF(_tag_day_all!C5="","",_tag_day_all!C5)</f>
+        <f>IF(_tag_day_hour1!C5="","",_tag_day_hour1!C5)</f>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(_tag_day_all!D5="","",_tag_day_all!D5)</f>
+        <f>IF(_tag_day_hour1!D5="","",_tag_day_hour1!D5)</f>
         <v/>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF(_tag_day_all!E5="","",_tag_day_all!E5)</f>
+        <f>IF(_tag_day_hour1!E5="","",_tag_day_hour1!E5)</f>
         <v/>
       </c>
       <c r="H8" s="2" t="str">
-        <f>IF(_tag_day_all!F5="","",_tag_day_all!F5)</f>
+        <f>IF(_tag_day_hour1!F5="","",_tag_day_hour1!F5)</f>
         <v/>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(_tag_day_all!G5="","",_tag_day_all!G5)</f>
+        <f>IF(_tag_day_hour1!G5="","",_tag_day_hour1!G5)</f>
         <v/>
       </c>
       <c r="J8" s="2" t="str">
-        <f>IF(_tag_day_all!H5="","",_tag_day_all!H5)</f>
+        <f>IF(_tag_day_hour1!H5="","",_tag_day_hour1!H5)</f>
         <v/>
       </c>
       <c r="K8" s="3" t="str">
-        <f>IF(_tag_day_all!I5="","",_tag_day_all!I5)</f>
+        <f>IF(_tag_day_hour1!I5="","",_tag_day_hour1!I5)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IF(_tag_day_hour1!A6="","",_tag_day_hour1!A6)</f>
+        <v/>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IF(_tag_day_hour1!B6="","",_tag_day_hour1!B6)</f>
+        <v/>
+      </c>
       <c r="E9" s="2" t="str">
-        <f>IF(_tag_day_all!C6="","",_tag_day_all!C6)</f>
+        <f>IF(_tag_day_hour1!C6="","",_tag_day_hour1!C6)</f>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(_tag_day_all!D6="","",_tag_day_all!D6)</f>
+        <f>IF(_tag_day_hour1!D6="","",_tag_day_hour1!D6)</f>
         <v/>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF(_tag_day_all!E6="","",_tag_day_all!E6)</f>
+        <f>IF(_tag_day_hour1!E6="","",_tag_day_hour1!E6)</f>
         <v/>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IF(_tag_day_all!F6="","",_tag_day_all!F6)</f>
+        <f>IF(_tag_day_hour1!F6="","",_tag_day_hour1!F6)</f>
         <v/>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(_tag_day_all!G6="","",_tag_day_all!G6)</f>
+        <f>IF(_tag_day_hour1!G6="","",_tag_day_hour1!G6)</f>
         <v/>
       </c>
       <c r="J9" s="2" t="str">
-        <f>IF(_tag_day_all!H6="","",_tag_day_all!H6)</f>
+        <f>IF(_tag_day_hour1!H6="","",_tag_day_hour1!H6)</f>
         <v/>
       </c>
       <c r="K9" s="3" t="str">
-        <f>IF(_tag_day_all!I6="","",_tag_day_all!I6)</f>
+        <f>IF(_tag_day_hour1!I6="","",_tag_day_hour1!I6)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IF(_tag_day_hour1!A7="","",_tag_day_hour1!A7)</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(_tag_day_hour1!B7="","",_tag_day_hour1!B7)</f>
+        <v/>
+      </c>
       <c r="E10" s="2" t="str">
-        <f>IF(_tag_day_all!C7="","",_tag_day_all!C7)</f>
+        <f>IF(_tag_day_hour1!C7="","",_tag_day_hour1!C7)</f>
         <v/>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF(_tag_day_all!D7="","",_tag_day_all!D7)</f>
+        <f>IF(_tag_day_hour1!D7="","",_tag_day_hour1!D7)</f>
         <v/>
       </c>
       <c r="G10" s="2" t="str">
-        <f>IF(_tag_day_all!E7="","",_tag_day_all!E7)</f>
+        <f>IF(_tag_day_hour1!E7="","",_tag_day_hour1!E7)</f>
         <v/>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IF(_tag_day_all!F7="","",_tag_day_all!F7)</f>
+        <f>IF(_tag_day_hour1!F7="","",_tag_day_hour1!F7)</f>
         <v/>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(_tag_day_all!G7="","",_tag_day_all!G7)</f>
+        <f>IF(_tag_day_hour1!G7="","",_tag_day_hour1!G7)</f>
         <v/>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IF(_tag_day_all!H7="","",_tag_day_all!H7)</f>
+        <f>IF(_tag_day_hour1!H7="","",_tag_day_hour1!H7)</f>
         <v/>
       </c>
       <c r="K10" s="3" t="str">
-        <f>IF(_tag_day_all!I7="","",_tag_day_all!I7)</f>
+        <f>IF(_tag_day_hour1!I7="","",_tag_day_hour1!I7)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IF(_tag_day_hour1!A8="","",_tag_day_hour1!A8)</f>
+        <v/>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IF(_tag_day_hour1!B8="","",_tag_day_hour1!B8)</f>
+        <v/>
+      </c>
       <c r="E11" s="2" t="str">
-        <f>IF(_tag_day_all!C8="","",_tag_day_all!C8)</f>
+        <f>IF(_tag_day_hour1!C8="","",_tag_day_hour1!C8)</f>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f>IF(_tag_day_all!D8="","",_tag_day_all!D8)</f>
+        <f>IF(_tag_day_hour1!D8="","",_tag_day_hour1!D8)</f>
         <v/>
       </c>
       <c r="G11" s="2" t="str">
-        <f>IF(_tag_day_all!E8="","",_tag_day_all!E8)</f>
+        <f>IF(_tag_day_hour1!E8="","",_tag_day_hour1!E8)</f>
         <v/>
       </c>
       <c r="H11" s="2" t="str">
-        <f>IF(_tag_day_all!F8="","",_tag_day_all!F8)</f>
+        <f>IF(_tag_day_hour1!F8="","",_tag_day_hour1!F8)</f>
         <v/>
       </c>
       <c r="I11" s="2" t="str">
-        <f>IF(_tag_day_all!G8="","",_tag_day_all!G8)</f>
+        <f>IF(_tag_day_hour1!G8="","",_tag_day_hour1!G8)</f>
         <v/>
       </c>
       <c r="J11" s="2" t="str">
-        <f>IF(_tag_day_all!H8="","",_tag_day_all!H8)</f>
+        <f>IF(_tag_day_hour1!H8="","",_tag_day_hour1!H8)</f>
         <v/>
       </c>
       <c r="K11" s="3" t="str">
-        <f>IF(_tag_day_all!I8="","",_tag_day_all!I8)</f>
+        <f>IF(_tag_day_hour1!I8="","",_tag_day_hour1!I8)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IF(_tag_day_hour1!A9="","",_tag_day_hour1!A9)</f>
+        <v/>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(_tag_day_hour1!B9="","",_tag_day_hour1!B9)</f>
+        <v/>
+      </c>
       <c r="E12" s="2" t="str">
-        <f>IF(_tag_day_all!C9="","",_tag_day_all!C9)</f>
+        <f>IF(_tag_day_hour1!C9="","",_tag_day_hour1!C9)</f>
         <v/>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF(_tag_day_all!D9="","",_tag_day_all!D9)</f>
+        <f>IF(_tag_day_hour1!D9="","",_tag_day_hour1!D9)</f>
         <v/>
       </c>
       <c r="G12" s="2" t="str">
-        <f>IF(_tag_day_all!E9="","",_tag_day_all!E9)</f>
+        <f>IF(_tag_day_hour1!E9="","",_tag_day_hour1!E9)</f>
         <v/>
       </c>
       <c r="H12" s="2" t="str">
-        <f>IF(_tag_day_all!F9="","",_tag_day_all!F9)</f>
+        <f>IF(_tag_day_hour1!F9="","",_tag_day_hour1!F9)</f>
         <v/>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(_tag_day_all!G9="","",_tag_day_all!G9)</f>
+        <f>IF(_tag_day_hour1!G9="","",_tag_day_hour1!G9)</f>
         <v/>
       </c>
       <c r="J12" s="2" t="str">
-        <f>IF(_tag_day_all!H9="","",_tag_day_all!H9)</f>
+        <f>IF(_tag_day_hour1!H9="","",_tag_day_hour1!H9)</f>
         <v/>
       </c>
       <c r="K12" s="3" t="str">
-        <f>IF(_tag_day_all!I9="","",_tag_day_all!I9)</f>
+        <f>IF(_tag_day_hour1!I9="","",_tag_day_hour1!I9)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IF(_tag_day_hour1!A10="","",_tag_day_hour1!A10)</f>
+        <v/>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IF(_tag_day_hour1!B10="","",_tag_day_hour1!B10)</f>
+        <v/>
+      </c>
       <c r="E13" s="2" t="str">
-        <f>IF(_tag_day_all!C10="","",_tag_day_all!C10)</f>
+        <f>IF(_tag_day_hour1!C10="","",_tag_day_hour1!C10)</f>
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF(_tag_day_all!D10="","",_tag_day_all!D10)</f>
+        <f>IF(_tag_day_hour1!D10="","",_tag_day_hour1!D10)</f>
         <v/>
       </c>
       <c r="G13" s="2" t="str">
-        <f>IF(_tag_day_all!E10="","",_tag_day_all!E10)</f>
+        <f>IF(_tag_day_hour1!E10="","",_tag_day_hour1!E10)</f>
         <v/>
       </c>
       <c r="H13" s="2" t="str">
-        <f>IF(_tag_day_all!F10="","",_tag_day_all!F10)</f>
+        <f>IF(_tag_day_hour1!F10="","",_tag_day_hour1!F10)</f>
         <v/>
       </c>
       <c r="I13" s="2" t="str">
-        <f>IF(_tag_day_all!G10="","",_tag_day_all!G10)</f>
+        <f>IF(_tag_day_hour1!G10="","",_tag_day_hour1!G10)</f>
         <v/>
       </c>
       <c r="J13" s="2" t="str">
-        <f>IF(_tag_day_all!H10="","",_tag_day_all!H10)</f>
+        <f>IF(_tag_day_hour1!H10="","",_tag_day_hour1!H10)</f>
         <v/>
       </c>
       <c r="K13" s="3" t="str">
-        <f>IF(_tag_day_all!I10="","",_tag_day_all!I10)</f>
+        <f>IF(_tag_day_hour1!I10="","",_tag_day_hour1!I10)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IF(_tag_day_hour1!A11="","",_tag_day_hour1!A11)</f>
+        <v/>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(_tag_day_hour1!B11="","",_tag_day_hour1!B11)</f>
+        <v/>
+      </c>
       <c r="E14" s="2" t="str">
-        <f>IF(_tag_day_all!C11="","",_tag_day_all!C11)</f>
+        <f>IF(_tag_day_hour1!C11="","",_tag_day_hour1!C11)</f>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF(_tag_day_all!D11="","",_tag_day_all!D11)</f>
+        <f>IF(_tag_day_hour1!D11="","",_tag_day_hour1!D11)</f>
         <v/>
       </c>
       <c r="G14" s="2" t="str">
-        <f>IF(_tag_day_all!E11="","",_tag_day_all!E11)</f>
+        <f>IF(_tag_day_hour1!E11="","",_tag_day_hour1!E11)</f>
         <v/>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IF(_tag_day_all!F11="","",_tag_day_all!F11)</f>
+        <f>IF(_tag_day_hour1!F11="","",_tag_day_hour1!F11)</f>
         <v/>
       </c>
       <c r="I14" s="2" t="str">
-        <f>IF(_tag_day_all!G11="","",_tag_day_all!G11)</f>
+        <f>IF(_tag_day_hour1!G11="","",_tag_day_hour1!G11)</f>
         <v/>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IF(_tag_day_all!H11="","",_tag_day_all!H11)</f>
+        <f>IF(_tag_day_hour1!H11="","",_tag_day_hour1!H11)</f>
         <v/>
       </c>
       <c r="K14" s="3" t="str">
-        <f>IF(_tag_day_all!I11="","",_tag_day_all!I11)</f>
+        <f>IF(_tag_day_hour1!I11="","",_tag_day_hour1!I11)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>IF(_tag_day_hour1!A12="","",_tag_day_hour1!A12)</f>
+        <v/>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(_tag_day_hour1!B12="","",_tag_day_hour1!B12)</f>
+        <v/>
+      </c>
       <c r="E15" s="2" t="str">
-        <f>IF(_tag_day_all!C12="","",_tag_day_all!C12)</f>
+        <f>IF(_tag_day_hour1!C12="","",_tag_day_hour1!C12)</f>
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF(_tag_day_all!D12="","",_tag_day_all!D12)</f>
+        <f>IF(_tag_day_hour1!D12="","",_tag_day_hour1!D12)</f>
         <v/>
       </c>
       <c r="G15" s="2" t="str">
-        <f>IF(_tag_day_all!E12="","",_tag_day_all!E12)</f>
+        <f>IF(_tag_day_hour1!E12="","",_tag_day_hour1!E12)</f>
         <v/>
       </c>
       <c r="H15" s="2" t="str">
-        <f>IF(_tag_day_all!F12="","",_tag_day_all!F12)</f>
+        <f>IF(_tag_day_hour1!F12="","",_tag_day_hour1!F12)</f>
         <v/>
       </c>
       <c r="I15" s="2" t="str">
-        <f>IF(_tag_day_all!G12="","",_tag_day_all!G12)</f>
+        <f>IF(_tag_day_hour1!G12="","",_tag_day_hour1!G12)</f>
         <v/>
       </c>
       <c r="J15" s="2" t="str">
-        <f>IF(_tag_day_all!H12="","",_tag_day_all!H12)</f>
+        <f>IF(_tag_day_hour1!H12="","",_tag_day_hour1!H12)</f>
         <v/>
       </c>
       <c r="K15" s="3" t="str">
-        <f>IF(_tag_day_all!I12="","",_tag_day_all!I12)</f>
+        <f>IF(_tag_day_hour1!I12="","",_tag_day_hour1!I12)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>IF(_tag_day_hour1!A13="","",_tag_day_hour1!A13)</f>
+        <v/>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(_tag_day_hour1!B13="","",_tag_day_hour1!B13)</f>
+        <v/>
+      </c>
       <c r="E16" s="2" t="str">
-        <f>IF(_tag_day_all!C13="","",_tag_day_all!C13)</f>
+        <f>IF(_tag_day_hour1!C13="","",_tag_day_hour1!C13)</f>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF(_tag_day_all!D13="","",_tag_day_all!D13)</f>
+        <f>IF(_tag_day_hour1!D13="","",_tag_day_hour1!D13)</f>
         <v/>
       </c>
       <c r="G16" s="2" t="str">
-        <f>IF(_tag_day_all!E13="","",_tag_day_all!E13)</f>
+        <f>IF(_tag_day_hour1!E13="","",_tag_day_hour1!E13)</f>
         <v/>
       </c>
       <c r="H16" s="2" t="str">
-        <f>IF(_tag_day_all!F13="","",_tag_day_all!F13)</f>
+        <f>IF(_tag_day_hour1!F13="","",_tag_day_hour1!F13)</f>
         <v/>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(_tag_day_all!G13="","",_tag_day_all!G13)</f>
+        <f>IF(_tag_day_hour1!G13="","",_tag_day_hour1!G13)</f>
         <v/>
       </c>
       <c r="J16" s="2" t="str">
-        <f>IF(_tag_day_all!H13="","",_tag_day_all!H13)</f>
+        <f>IF(_tag_day_hour1!H13="","",_tag_day_hour1!H13)</f>
         <v/>
       </c>
       <c r="K16" s="3" t="str">
-        <f>IF(_tag_day_all!I13="","",_tag_day_all!I13)</f>
+        <f>IF(_tag_day_hour1!I13="","",_tag_day_hour1!I13)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>IF(_tag_day_hour1!A14="","",_tag_day_hour1!A14)</f>
+        <v/>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(_tag_day_hour1!B14="","",_tag_day_hour1!B14)</f>
+        <v/>
+      </c>
       <c r="E17" s="2" t="str">
-        <f>IF(_tag_day_all!C14="","",_tag_day_all!C14)</f>
+        <f>IF(_tag_day_hour1!C14="","",_tag_day_hour1!C14)</f>
         <v/>
       </c>
       <c r="F17" s="2" t="str">
-        <f>IF(_tag_day_all!D14="","",_tag_day_all!D14)</f>
+        <f>IF(_tag_day_hour1!D14="","",_tag_day_hour1!D14)</f>
         <v/>
       </c>
       <c r="G17" s="2" t="str">
-        <f>IF(_tag_day_all!E14="","",_tag_day_all!E14)</f>
+        <f>IF(_tag_day_hour1!E14="","",_tag_day_hour1!E14)</f>
         <v/>
       </c>
       <c r="H17" s="2" t="str">
-        <f>IF(_tag_day_all!F14="","",_tag_day_all!F14)</f>
+        <f>IF(_tag_day_hour1!F14="","",_tag_day_hour1!F14)</f>
         <v/>
       </c>
       <c r="I17" s="2" t="str">
-        <f>IF(_tag_day_all!G14="","",_tag_day_all!G14)</f>
+        <f>IF(_tag_day_hour1!G14="","",_tag_day_hour1!G14)</f>
         <v/>
       </c>
       <c r="J17" s="2" t="str">
-        <f>IF(_tag_day_all!H14="","",_tag_day_all!H14)</f>
+        <f>IF(_tag_day_hour1!H14="","",_tag_day_hour1!H14)</f>
         <v/>
       </c>
       <c r="K17" s="3" t="str">
-        <f>IF(_tag_day_all!I14="","",_tag_day_all!I14)</f>
+        <f>IF(_tag_day_hour1!I14="","",_tag_day_hour1!I14)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>IF(_tag_day_hour1!A15="","",_tag_day_hour1!A15)</f>
+        <v/>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>IF(_tag_day_hour1!B15="","",_tag_day_hour1!B15)</f>
+        <v/>
+      </c>
       <c r="E18" s="2" t="str">
-        <f>IF(_tag_day_all!C15="","",_tag_day_all!C15)</f>
+        <f>IF(_tag_day_hour1!C15="","",_tag_day_hour1!C15)</f>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF(_tag_day_all!D15="","",_tag_day_all!D15)</f>
+        <f>IF(_tag_day_hour1!D15="","",_tag_day_hour1!D15)</f>
         <v/>
       </c>
       <c r="G18" s="2" t="str">
-        <f>IF(_tag_day_all!E15="","",_tag_day_all!E15)</f>
+        <f>IF(_tag_day_hour1!E15="","",_tag_day_hour1!E15)</f>
         <v/>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IF(_tag_day_all!F15="","",_tag_day_all!F15)</f>
+        <f>IF(_tag_day_hour1!F15="","",_tag_day_hour1!F15)</f>
         <v/>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(_tag_day_all!G15="","",_tag_day_all!G15)</f>
+        <f>IF(_tag_day_hour1!G15="","",_tag_day_hour1!G15)</f>
         <v/>
       </c>
       <c r="J18" s="2" t="str">
-        <f>IF(_tag_day_all!H15="","",_tag_day_all!H15)</f>
+        <f>IF(_tag_day_hour1!H15="","",_tag_day_hour1!H15)</f>
         <v/>
       </c>
       <c r="K18" s="3" t="str">
-        <f>IF(_tag_day_all!I15="","",_tag_day_all!I15)</f>
+        <f>IF(_tag_day_hour1!I15="","",_tag_day_hour1!I15)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>IF(_tag_day_hour1!A16="","",_tag_day_hour1!A16)</f>
+        <v/>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IF(_tag_day_hour1!B16="","",_tag_day_hour1!B16)</f>
+        <v/>
+      </c>
       <c r="E19" s="2" t="str">
-        <f>IF(_tag_day_all!C16="","",_tag_day_all!C16)</f>
+        <f>IF(_tag_day_hour1!C16="","",_tag_day_hour1!C16)</f>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f>IF(_tag_day_all!D16="","",_tag_day_all!D16)</f>
+        <f>IF(_tag_day_hour1!D16="","",_tag_day_hour1!D16)</f>
         <v/>
       </c>
       <c r="G19" s="2" t="str">
-        <f>IF(_tag_day_all!E16="","",_tag_day_all!E16)</f>
+        <f>IF(_tag_day_hour1!E16="","",_tag_day_hour1!E16)</f>
         <v/>
       </c>
       <c r="H19" s="2" t="str">
-        <f>IF(_tag_day_all!F16="","",_tag_day_all!F16)</f>
+        <f>IF(_tag_day_hour1!F16="","",_tag_day_hour1!F16)</f>
         <v/>
       </c>
       <c r="I19" s="2" t="str">
-        <f>IF(_tag_day_all!G16="","",_tag_day_all!G16)</f>
+        <f>IF(_tag_day_hour1!G16="","",_tag_day_hour1!G16)</f>
         <v/>
       </c>
       <c r="J19" s="2" t="str">
-        <f>IF(_tag_day_all!H16="","",_tag_day_all!H16)</f>
+        <f>IF(_tag_day_hour1!H16="","",_tag_day_hour1!H16)</f>
         <v/>
       </c>
       <c r="K19" s="3" t="str">
-        <f>IF(_tag_day_all!I16="","",_tag_day_all!I16)</f>
+        <f>IF(_tag_day_hour1!I16="","",_tag_day_hour1!I16)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>IF(_tag_day_hour1!A17="","",_tag_day_hour1!A17)</f>
+        <v/>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>IF(_tag_day_hour1!B17="","",_tag_day_hour1!B17)</f>
+        <v/>
+      </c>
       <c r="E20" s="2" t="str">
-        <f>IF(_tag_day_all!C17="","",_tag_day_all!C17)</f>
+        <f>IF(_tag_day_hour1!C17="","",_tag_day_hour1!C17)</f>
         <v/>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF(_tag_day_all!D17="","",_tag_day_all!D17)</f>
+        <f>IF(_tag_day_hour1!D17="","",_tag_day_hour1!D17)</f>
         <v/>
       </c>
       <c r="G20" s="2" t="str">
-        <f>IF(_tag_day_all!E17="","",_tag_day_all!E17)</f>
+        <f>IF(_tag_day_hour1!E17="","",_tag_day_hour1!E17)</f>
         <v/>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(_tag_day_all!F17="","",_tag_day_all!F17)</f>
+        <f>IF(_tag_day_hour1!F17="","",_tag_day_hour1!F17)</f>
         <v/>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(_tag_day_all!G17="","",_tag_day_all!G17)</f>
+        <f>IF(_tag_day_hour1!G17="","",_tag_day_hour1!G17)</f>
         <v/>
       </c>
       <c r="J20" s="2" t="str">
-        <f>IF(_tag_day_all!H17="","",_tag_day_all!H17)</f>
+        <f>IF(_tag_day_hour1!H17="","",_tag_day_hour1!H17)</f>
         <v/>
       </c>
       <c r="K20" s="3" t="str">
-        <f>IF(_tag_day_all!I17="","",_tag_day_all!I17)</f>
+        <f>IF(_tag_day_hour1!I17="","",_tag_day_hour1!I17)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>IF(_tag_day_hour1!A18="","",_tag_day_hour1!A18)</f>
+        <v/>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>IF(_tag_day_hour1!B18="","",_tag_day_hour1!B18)</f>
+        <v/>
+      </c>
       <c r="E21" s="2" t="str">
-        <f>IF(_tag_day_all!C18="","",_tag_day_all!C18)</f>
+        <f>IF(_tag_day_hour1!C18="","",_tag_day_hour1!C18)</f>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f>IF(_tag_day_all!D18="","",_tag_day_all!D18)</f>
+        <f>IF(_tag_day_hour1!D18="","",_tag_day_hour1!D18)</f>
         <v/>
       </c>
       <c r="G21" s="2" t="str">
-        <f>IF(_tag_day_all!E18="","",_tag_day_all!E18)</f>
+        <f>IF(_tag_day_hour1!E18="","",_tag_day_hour1!E18)</f>
         <v/>
       </c>
       <c r="H21" s="2" t="str">
-        <f>IF(_tag_day_all!F18="","",_tag_day_all!F18)</f>
+        <f>IF(_tag_day_hour1!F18="","",_tag_day_hour1!F18)</f>
         <v/>
       </c>
       <c r="I21" s="2" t="str">
-        <f>IF(_tag_day_all!G18="","",_tag_day_all!G18)</f>
+        <f>IF(_tag_day_hour1!G18="","",_tag_day_hour1!G18)</f>
         <v/>
       </c>
       <c r="J21" s="2" t="str">
-        <f>IF(_tag_day_all!H18="","",_tag_day_all!H18)</f>
+        <f>IF(_tag_day_hour1!H18="","",_tag_day_hour1!H18)</f>
         <v/>
       </c>
       <c r="K21" s="3" t="str">
-        <f>IF(_tag_day_all!I18="","",_tag_day_all!I18)</f>
+        <f>IF(_tag_day_hour1!I18="","",_tag_day_hour1!I18)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>IF(_tag_day_hour1!A19="","",_tag_day_hour1!A19)</f>
+        <v/>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>IF(_tag_day_hour1!B19="","",_tag_day_hour1!B19)</f>
+        <v/>
+      </c>
       <c r="E22" s="2" t="str">
-        <f>IF(_tag_day_all!C19="","",_tag_day_all!C19)</f>
+        <f>IF(_tag_day_hour1!C19="","",_tag_day_hour1!C19)</f>
         <v/>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF(_tag_day_all!D19="","",_tag_day_all!D19)</f>
+        <f>IF(_tag_day_hour1!D19="","",_tag_day_hour1!D19)</f>
         <v/>
       </c>
       <c r="G22" s="2" t="str">
-        <f>IF(_tag_day_all!E19="","",_tag_day_all!E19)</f>
-        <v/>
-      </c>
-      <c r="H22" s="2" t="str">
-        <f>IF(_tag_day_all!F19="","",_tag_day_all!F19)</f>
-        <v/>
-      </c>
+        <f>IF(_tag_day_hour1!E19="","",_tag_day_hour1!E19)</f>
+        <v/>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2" t="str">
-        <f>IF(_tag_day_all!G19="","",_tag_day_all!G19)</f>
+        <f>IF(_tag_day_hour1!G19="","",_tag_day_hour1!G19)</f>
         <v/>
       </c>
       <c r="J22" s="2" t="str">
-        <f>IF(_tag_day_all!H19="","",_tag_day_all!H19)</f>
+        <f>IF(_tag_day_hour1!H19="","",_tag_day_hour1!H19)</f>
         <v/>
       </c>
       <c r="K22" s="3" t="str">
-        <f>IF(_tag_day_all!I19="","",_tag_day_all!I19)</f>
+        <f>IF(_tag_day_hour1!I19="","",_tag_day_hour1!I19)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>IF(_tag_day_hour1!A20="","",_tag_day_hour1!A20)</f>
+        <v/>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>IF(_tag_day_hour1!B20="","",_tag_day_hour1!B20)</f>
+        <v/>
+      </c>
       <c r="E23" s="2" t="str">
-        <f>IF(_tag_day_all!C20="","",_tag_day_all!C20)</f>
+        <f>IF(_tag_day_hour1!C20="","",_tag_day_hour1!C20)</f>
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <f>IF(_tag_day_all!D20="","",_tag_day_all!D20)</f>
+        <f>IF(_tag_day_hour1!D20="","",_tag_day_hour1!D20)</f>
         <v/>
       </c>
       <c r="G23" s="2" t="str">
-        <f>IF(_tag_day_all!E20="","",_tag_day_all!E20)</f>
+        <f>IF(_tag_day_hour1!E20="","",_tag_day_hour1!E20)</f>
         <v/>
       </c>
       <c r="H23" s="2" t="str">
-        <f>IF(_tag_day_all!F20="","",_tag_day_all!F20)</f>
+        <f>IF(_tag_day_hour1!F20="","",_tag_day_hour1!F20)</f>
         <v/>
       </c>
       <c r="I23" s="2" t="str">
-        <f>IF(_tag_day_all!G20="","",_tag_day_all!G20)</f>
+        <f>IF(_tag_day_hour1!G20="","",_tag_day_hour1!G20)</f>
         <v/>
       </c>
       <c r="J23" s="2" t="str">
-        <f>IF(_tag_day_all!H20="","",_tag_day_all!H20)</f>
+        <f>IF(_tag_day_hour1!H20="","",_tag_day_hour1!H20)</f>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f>IF(_tag_day_all!I20="","",_tag_day_all!I20)</f>
+        <f>IF(_tag_day_hour1!I20="","",_tag_day_hour1!I20)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>IF(_tag_day_hour1!A21="","",_tag_day_hour1!A21)</f>
+        <v/>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>IF(_tag_day_hour1!B21="","",_tag_day_hour1!B21)</f>
+        <v/>
+      </c>
       <c r="E24" s="2" t="str">
-        <f>IF(_tag_day_all!C21="","",_tag_day_all!C21)</f>
+        <f>IF(_tag_day_hour1!C21="","",_tag_day_hour1!C21)</f>
         <v/>
       </c>
       <c r="F24" s="2" t="str">
-        <f>IF(_tag_day_all!D21="","",_tag_day_all!D21)</f>
+        <f>IF(_tag_day_hour1!D21="","",_tag_day_hour1!D21)</f>
         <v/>
       </c>
       <c r="G24" s="2" t="str">
-        <f>IF(_tag_day_all!E21="","",_tag_day_all!E21)</f>
+        <f>IF(_tag_day_hour1!E21="","",_tag_day_hour1!E21)</f>
         <v/>
       </c>
       <c r="H24" s="2" t="str">
-        <f>IF(_tag_day_all!F21="","",_tag_day_all!F21)</f>
+        <f>IF(_tag_day_hour1!F21="","",_tag_day_hour1!F21)</f>
         <v/>
       </c>
       <c r="I24" s="2" t="str">
-        <f>IF(_tag_day_all!G21="","",_tag_day_all!G21)</f>
+        <f>IF(_tag_day_hour1!G21="","",_tag_day_hour1!G21)</f>
         <v/>
       </c>
       <c r="J24" s="2" t="str">
-        <f>IF(_tag_day_all!H21="","",_tag_day_all!H21)</f>
+        <f>IF(_tag_day_hour1!H21="","",_tag_day_hour1!H21)</f>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f>IF(_tag_day_all!I21="","",_tag_day_all!I21)</f>
+        <f>IF(_tag_day_hour1!I21="","",_tag_day_hour1!I21)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>IF(_tag_day_hour1!A22="","",_tag_day_hour1!A22)</f>
+        <v/>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>IF(_tag_day_hour1!B22="","",_tag_day_hour1!B22)</f>
+        <v/>
+      </c>
       <c r="E25" s="2" t="str">
-        <f>IF(_tag_day_all!C22="","",_tag_day_all!C22)</f>
+        <f>IF(_tag_day_hour1!C22="","",_tag_day_hour1!C22)</f>
         <v/>
       </c>
       <c r="F25" s="2" t="str">
-        <f>IF(_tag_day_all!D22="","",_tag_day_all!D22)</f>
+        <f>IF(_tag_day_hour1!D22="","",_tag_day_hour1!D22)</f>
         <v/>
       </c>
       <c r="G25" s="2" t="str">
-        <f>IF(_tag_day_all!E22="","",_tag_day_all!E22)</f>
+        <f>IF(_tag_day_hour1!E22="","",_tag_day_hour1!E22)</f>
         <v/>
       </c>
       <c r="H25" s="2" t="str">
-        <f>IF(_tag_day_all!F22="","",_tag_day_all!F22)</f>
+        <f>IF(_tag_day_hour1!F22="","",_tag_day_hour1!F22)</f>
         <v/>
       </c>
       <c r="I25" s="2" t="str">
-        <f>IF(_tag_day_all!G22="","",_tag_day_all!G22)</f>
+        <f>IF(_tag_day_hour1!G22="","",_tag_day_hour1!G22)</f>
         <v/>
       </c>
       <c r="J25" s="2" t="str">
-        <f>IF(_tag_day_all!H22="","",_tag_day_all!H22)</f>
+        <f>IF(_tag_day_hour1!H22="","",_tag_day_hour1!H22)</f>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f>IF(_tag_day_all!I22="","",_tag_day_all!I22)</f>
+        <f>IF(_tag_day_hour1!I22="","",_tag_day_hour1!I22)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>IF(_tag_day_hour1!A23="","",_tag_day_hour1!A23)</f>
+        <v/>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>IF(_tag_day_hour1!B23="","",_tag_day_hour1!B23)</f>
+        <v/>
+      </c>
       <c r="E26" s="2" t="str">
-        <f>IF(_tag_day_all!C23="","",_tag_day_all!C23)</f>
+        <f>IF(_tag_day_hour1!C23="","",_tag_day_hour1!C23)</f>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF(_tag_day_all!D23="","",_tag_day_all!D23)</f>
+        <f>IF(_tag_day_hour1!D23="","",_tag_day_hour1!D23)</f>
         <v/>
       </c>
       <c r="G26" s="2" t="str">
-        <f>IF(_tag_day_all!E23="","",_tag_day_all!E23)</f>
+        <f>IF(_tag_day_hour1!E23="","",_tag_day_hour1!E23)</f>
         <v/>
       </c>
       <c r="H26" s="2" t="str">
-        <f>IF(_tag_day_all!F23="","",_tag_day_all!F23)</f>
+        <f>IF(_tag_day_hour1!F23="","",_tag_day_hour1!F23)</f>
         <v/>
       </c>
       <c r="I26" s="2" t="str">
-        <f>IF(_tag_day_all!G23="","",_tag_day_all!G23)</f>
+        <f>IF(_tag_day_hour1!G23="","",_tag_day_hour1!G23)</f>
         <v/>
       </c>
       <c r="J26" s="2" t="str">
-        <f>IF(_tag_day_all!H23="","",_tag_day_all!H23)</f>
+        <f>IF(_tag_day_hour1!H23="","",_tag_day_hour1!H23)</f>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f>IF(_tag_day_all!I23="","",_tag_day_all!I23)</f>
+        <f>IF(_tag_day_hour1!I23="","",_tag_day_hour1!I23)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>IF(_tag_day_hour1!A24="","",_tag_day_hour1!A24)</f>
+        <v/>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>IF(_tag_day_hour1!B24="","",_tag_day_hour1!B24)</f>
+        <v/>
+      </c>
       <c r="E27" s="2" t="str">
-        <f>IF(_tag_day_all!C24="","",_tag_day_all!C24)</f>
+        <f>IF(_tag_day_hour1!C24="","",_tag_day_hour1!C24)</f>
         <v/>
       </c>
       <c r="F27" s="2" t="str">
-        <f>IF(_tag_day_all!D24="","",_tag_day_all!D24)</f>
+        <f>IF(_tag_day_hour1!D24="","",_tag_day_hour1!D24)</f>
         <v/>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(_tag_day_all!E24="","",_tag_day_all!E24)</f>
+        <f>IF(_tag_day_hour1!E24="","",_tag_day_hour1!E24)</f>
         <v/>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(_tag_day_all!F24="","",_tag_day_all!F24)</f>
+        <f>IF(_tag_day_hour1!F24="","",_tag_day_hour1!F24)</f>
         <v/>
       </c>
       <c r="I27" s="2" t="str">
-        <f>IF(_tag_day_all!G24="","",_tag_day_all!G24)</f>
+        <f>IF(_tag_day_hour1!G24="","",_tag_day_hour1!G24)</f>
         <v/>
       </c>
       <c r="J27" s="2" t="str">
-        <f>IF(_tag_day_all!H24="","",_tag_day_all!H24)</f>
+        <f>IF(_tag_day_hour1!H24="","",_tag_day_hour1!H24)</f>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f>IF(_tag_day_all!I24="","",_tag_day_all!I24)</f>
+        <f>IF(_tag_day_hour1!I24="","",_tag_day_hour1!I24)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f>IF(_tag_day_hour1!A25="","",_tag_day_hour1!A25)</f>
+        <v/>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>IF(_tag_day_hour1!B25="","",_tag_day_hour1!B25)</f>
+        <v/>
+      </c>
       <c r="E28" s="2" t="str">
-        <f>IF(_tag_day_all!C25="","",_tag_day_all!C25)</f>
+        <f>IF(_tag_day_hour1!C25="","",_tag_day_hour1!C25)</f>
         <v/>
       </c>
       <c r="F28" s="2" t="str">
-        <f>IF(_tag_day_all!D25="","",_tag_day_all!D25)</f>
+        <f>IF(_tag_day_hour1!D25="","",_tag_day_hour1!D25)</f>
         <v/>
       </c>
       <c r="G28" s="2" t="str">
-        <f>IF(_tag_day_all!E25="","",_tag_day_all!E25)</f>
+        <f>IF(_tag_day_hour1!E25="","",_tag_day_hour1!E25)</f>
         <v/>
       </c>
       <c r="H28" s="2" t="str">
-        <f>IF(_tag_day_all!F25="","",_tag_day_all!F25)</f>
+        <f>IF(_tag_day_hour1!F25="","",_tag_day_hour1!F25)</f>
         <v/>
       </c>
       <c r="I28" s="2" t="str">
-        <f>IF(_tag_day_all!G25="","",_tag_day_all!G25)</f>
+        <f>IF(_tag_day_hour1!G25="","",_tag_day_hour1!G25)</f>
         <v/>
       </c>
       <c r="J28" s="2" t="str">
-        <f>IF(_tag_day_all!H25="","",_tag_day_all!H25)</f>
+        <f>IF(_tag_day_hour1!H25="","",_tag_day_hour1!H25)</f>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f>IF(_tag_day_all!I25="","",_tag_day_all!I25)</f>
+        <f>IF(_tag_day_hour1!I25="","",_tag_day_hour1!I25)</f>
         <v/>
       </c>
     </row>
@@ -1775,39 +1920,44 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="75.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1816,7 +1966,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/finished/wg8#高炉/小时炉况输入表.xlsx
+++ b/excel/finished/wg8#高炉/小时炉况输入表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F0F0B-365E-4D34-AB9E-DF4B7E862B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A34AA-F1E9-449B-AA0C-72F9FD5967B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1620" windowWidth="24480" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小时炉况输入表" sheetId="1" r:id="rId1"/>
@@ -793,13 +793,13 @@
   <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="11" width="11.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.625" style="1"/>
